--- a/similarity_matrix.xlsx
+++ b/similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,136 +446,156 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>activity1 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+          <t>activity1-1 (Rapid initial evaluation for airway, breathing, and circulation)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>activity1-2 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>activity1-3 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>parallelgateway1 (Parallel Gateway)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dummy_Flow_2 ((dummy branch entry))</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>activity2 (Immediate brain imaging (CT or MRI))</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>activity3 (Immediate brain imaging (CT or MRI))</t>
+          <t>activity2 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>dummy_Flow_4 ((dummy branch entry))</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>activity3-1 (Immediate brain imaging (CT or MRI))</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>activity3-2 (Immediate brain imaging (CT or MRI))</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>activity4 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>activity5 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>activity6 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>dummy_Flow_6 ((dummy branch entry))</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>activity7 (Blood work:
+          <t>activity4-1 (Chest x-ray without delay for for thrombolysis assessment)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>activity5 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>dummy_Flow_9 ((dummy branch entry))</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>activity6-1 (Blood work:
  CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>activity8 (Blood work:
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>activity6-2 (Blood work:
  CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>activity9 (Chest x-ray without delay for for thrombolysis assessment)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>dummy_Flow_9 ((dummy branch entry))</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>activity10 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>activity11 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+          <t>parallelgateway1Join (Parallel Merge)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>activity8 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>exclusivegateway1 (Exclusive Gateway)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>activity12 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>activity13 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
+          <t>activity9 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>activity10 (Proceed with further assessment as indicated (Role: medical staff; Objects: patient))</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>exclusivegateway1Join (Exclusive Merge)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>activity14 (Give patients appropriate cross-continuum secondary prevention assessments and therapies
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway2 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>activity11 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>activity12 (Continue standard care (Role: medical staff; Objects: patient))</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway2Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>activity13 (Give patients appropriate cross-continuum secondary prevention assessments and therapies
 (All patients, whether admitted or discharged from the ED)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>activity15 (Use a standard triage tool to determine the appropriate location for the care of patients
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>activity14 (Use a standard triage tool to determine the appropriate location for the care of patients
 (Patients with TIA))</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway2 (Exclusive Gateway)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>activity16 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>activity17 (Vascular imaging of the brain and neck arteries ASAP)</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway2Join (Exclusive Merge)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>parallelgateway1Join (Parallel Merge)</t>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway3 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>activity15 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>activity16 (Vascular imaging of the brain and neck arteries ASAP)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway3Join (Exclusive Merge)</t>
         </is>
       </c>
     </row>
@@ -669,6 +689,18 @@
       <c r="AC2" t="n">
         <v>0</v>
       </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -686,78 +718,90 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.214765100671141</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.1746031746031746</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>0.253968253968254</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>0.253968253968254</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>0.2361111111111112</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.214765100671141</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1746031746031746</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.1746031746031746</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.2307692307692307</v>
       </c>
       <c r="O3" t="n">
         <v>0.1746031746031746</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.2307692307692307</v>
       </c>
       <c r="Q3" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.2209302325581395</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.2409638554216867</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
+        <v>0.2261904761904762</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.1861471861471862</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
         <v>0.1986301369863014</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AC3" t="n">
         <v>0.2477064220183486</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AF3" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AG3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -777,78 +821,90 @@
         <v>0.214765100671141</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.214765100671141</v>
       </c>
       <c r="F4" t="n">
+        <v>0.214765100671141</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.09395973154362414</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>0.1476510067114094</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>0.1476510067114094</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>0.2080536912751678</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>0.1879194630872483</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>0.09395973154362414</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>0.174496644295302</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>0.174496644295302</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.1879194630872483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.09395973154362414</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.2325581395348837</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.2416107382550335</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
+        <v>0.2281879194630873</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.2683982683982684</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
+        <v>0.1946308724832215</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>0.174496644295302</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AC4" t="n">
         <v>0.2885906040268457</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AF4" t="n">
         <v>0.2013422818791947</v>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AG4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -868,78 +924,90 @@
         <v>0.253968253968254</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="F5" t="n">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1476510067114094</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.2571428571428571</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.3055555555555556</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.1476510067114094</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.2295081967213115</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>0.2571428571428571</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.1279069767441861</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.1279069767441861</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.1686746987951807</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.09956709956709953</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
+        <v>0.1774193548387096</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0.136986301369863</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AC5" t="n">
         <v>0.1743119266055045</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0.3580246913580247</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AF5" t="n">
         <v>0.25</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AG5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -959,78 +1027,90 @@
         <v>0.2361111111111112</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.2361111111111112</v>
       </c>
       <c r="F6" t="n">
+        <v>0.2361111111111112</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2080536912751678</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.1388888888888888</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>0.3055555555555556</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>0.3055555555555556</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.2638888888888888</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>0.1388888888888888</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>0.2307692307692307</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>0.2307692307692307</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1807228915662651</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2034632034632035</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.3027522935779816</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.2592592592592593</v>
+      </c>
+      <c r="AF6" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="P6" t="n">
-        <v>0.1388888888888888</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.2034632034632035</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.3027522935779816</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.2592592592592593</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AG6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,78 +1130,90 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="F7" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2348993288590604</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.180327868852459</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>0.2295081967213115</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>0.2295081967213115</v>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>0.2638888888888888</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.180327868852459</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.2384615384615385</v>
-      </c>
       <c r="N7" t="n">
-        <v>0.2384615384615385</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0.180327868852459</v>
       </c>
       <c r="P7" t="n">
-        <v>0.180327868852459</v>
+        <v>0.2384615384615385</v>
       </c>
       <c r="Q7" t="n">
+        <v>0.2384615384615385</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>0.1976744186046512</v>
       </c>
-      <c r="R7" t="n">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.2771084337349398</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
+        <v>0.2023809523809523</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.1688311688311688</v>
       </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
+        <v>0.1451612903225806</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
         <v>0.2397260273972602</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AC7" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AF7" t="n">
         <v>0.2459016393442623</v>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AG7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1141,78 +1233,90 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="F8" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1879194630872483</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.1879194630872483</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.180327868852459</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>0.2230769230769231</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>0.2230769230769231</v>
       </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2023809523809523</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.1558441558441559</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.1917808219178082</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="AF8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0.2034883720930233</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.2034883720930233</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.1558441558441559</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.1917808219178082</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.2568807339449541</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
+      <c r="AG8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1233,78 +1337,90 @@
         <v>0.2307692307692307</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.2307692307692307</v>
       </c>
       <c r="F9" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>0.1538461538461539</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>0.2307692307692307</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.174496644295302</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
+        <v>0.2230769230769231</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.2384615384615385</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2769230769230769</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.2230769230769231</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.2769230769230769</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.2251082251082251</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.178082191780822</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>0.2076923076923077</v>
       </c>
       <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.178082191780822</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.2461538461538462</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="AF9" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AG9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1324,78 +1440,90 @@
         <v>0.2209302325581395</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="F10" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.07558139534883723</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>0.1279069767441861</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="n">
         <v>0.1279069767441861</v>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>0.2209302325581395</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.1976744186046512</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>0.07558139534883723</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="O10" t="n">
-        <v>0.2034883720930233</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.07558139534883723</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.2906976744186046</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
+        <v>0.1918604651162791</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>0.2674418604651163</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AC10" t="n">
         <v>0.2558139534883721</v>
       </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AF10" t="n">
         <v>0.1918604651162791</v>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AG10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1415,78 +1543,90 @@
         <v>0.2409638554216867</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="F11" t="n">
+        <v>0.2409638554216867</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2416107382550335</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.1084337349397591</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
         <v>0.1686746987951807</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="n">
         <v>0.1686746987951807</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>0.1807228915662651</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.2416107382550335</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.2771084337349398</v>
       </c>
-      <c r="L11" t="n">
+      <c r="O11" t="n">
         <v>0.1084337349397591</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>0.2769230769230769</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>0.2769230769230769</v>
       </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.2906976744186046</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1547619047619048</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.2048192771084337</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.2328767123287672</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1325301204819277</v>
+      </c>
+      <c r="AF11" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="P11" t="n">
-        <v>0.1084337349397591</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.2906976744186046</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.2906976744186046</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.2328767123287672</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.2110091743119266</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.1325301204819277</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AG11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1506,78 +1646,90 @@
         <v>0.1861471861471862</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.1861471861471862</v>
       </c>
       <c r="F12" t="n">
+        <v>0.1861471861471862</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2683982683982684</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.06926406926406925</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
         <v>0.09956709956709953</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>0.09956709956709953</v>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>0.2034632034632035</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.2683982683982684</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
+        <v>0.1558441558441559</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.1688311688311688</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>0.06926406926406925</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>0.2251082251082251</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
         <v>0.2251082251082251</v>
       </c>
-      <c r="O12" t="n">
-        <v>0.1558441558441559</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.06926406926406925</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="R12" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.1601731601731602</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AC12" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AF12" t="n">
         <v>0.1471861471861472</v>
       </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AG12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1671,6 +1823,18 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1689,78 +1853,90 @@
         <v>0.1986301369863014</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="F14" t="n">
+        <v>0.1986301369863014</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.08904109589041098</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
         <v>0.136986301369863</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>0.136986301369863</v>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>0.273972602739726</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.174496644295302</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
+        <v>0.1917808219178082</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.2397260273972602</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>0.08904109589041098</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>0.178082191780822</v>
       </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
         <v>0.178082191780822</v>
       </c>
-      <c r="O14" t="n">
-        <v>0.1917808219178082</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.08904109589041098</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.2674418604651163</v>
       </c>
-      <c r="R14" t="n">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>0.2328767123287672</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
+        <v>0.2328767123287672</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
+        <v>0.2123287671232876</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="n">
         <v>0.2671232876712328</v>
       </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>0.2534246575342466</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AF14" t="n">
         <v>0.1986301369863014</v>
       </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AG14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1781,78 +1957,90 @@
         <v>0.2477064220183486</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="F15" t="n">
+        <v>0.2477064220183486</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2885906040268457</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.1100917431192661</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
         <v>0.1743119266055045</v>
       </c>
-      <c r="H15" t="n">
+      <c r="K15" t="n">
         <v>0.1743119266055045</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>0.3027522935779816</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.2885906040268457</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>0.1100917431192661</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>0.2461538461538462</v>
       </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
         <v>0.2461538461538462</v>
       </c>
-      <c r="O15" t="n">
-        <v>0.2568807339449541</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.1100917431192661</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>0.2558139534883721</v>
       </c>
-      <c r="R15" t="n">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.2110091743119266</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
+        <v>0.2385321100917431</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
+        <v>0.2935779816513762</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
         <v>0.2671232876712328</v>
       </c>
-      <c r="X15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0.2385321100917431</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AF15" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AG15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1914,37 +2102,49 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
         <v>0.6470588235294117</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1963,78 +2163,90 @@
         <v>0.1975308641975309</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="F17" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2348993288590604</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.1358024691358025</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
         <v>0.3580246913580247</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
         <v>0.3580246913580247</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>0.2592592592592593</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.1358024691358025</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>0.2076923076923077</v>
       </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
         <v>0.2076923076923077</v>
       </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1325301204819277</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="Z17" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="P17" t="n">
-        <v>0.1358024691358025</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.1325301204819277</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0.2534246575342466</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AC17" t="n">
         <v>0.2385321100917431</v>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
         <v>0.3950617283950617</v>
       </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AG17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2054,78 +2266,90 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F18" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2013422818791947</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.2115384615384616</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
         <v>0.25</v>
       </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
         <v>0.25</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.2013422818791947</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.2459016393442623</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>0.2115384615384616</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="N18" t="n">
+      <c r="Q18" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="O18" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.2115384615384616</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>0.1918604651162791</v>
       </c>
-      <c r="R18" t="n">
-        <v>0.1918604651162791</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
+        <v>0.2023809523809523</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>0.1471861471861472</v>
       </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
+        <v>0.1774193548387096</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
         <v>0.1986301369863014</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AC18" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>0.3950617283950617</v>
       </c>
-      <c r="AA18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
+      <c r="AF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2187,37 +2411,49 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2310,6 +2546,18 @@
       <c r="AC20" t="n">
         <v>0</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2327,13 +2575,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2366,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2399,7 +2647,19 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.625</v>
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2492,6 +2752,18 @@
       <c r="AC22" t="n">
         <v>0</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2551,37 +2823,49 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
         <v>0.6470588235294117</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2642,37 +2926,49 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2691,14 +2987,14 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.625</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
@@ -2730,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2763,7 +3059,19 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/similarity_matrix.xlsx
+++ b/similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,32 +446,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>activity1-1 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+          <t>activity1 (Rapid initial evaluation for airway, breathing, and circulation)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>activity1-2 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+          <t>parallelgateway1 (Parallel Gateway)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>activity1-3 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+          <t>dummy_Flow_2 ((dummy branch entry))</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>parallelgateway1 (Parallel Gateway)</t>
+          <t>activity2-1 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>activity2 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
+          <t>activity2-2 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>dummy_Flow_4 ((dummy branch entry))</t>
+          <t>dummy_Flow_5 ((dummy branch entry))</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>activity4-1 (Chest x-ray without delay for for thrombolysis assessment)</t>
+          <t>activity5 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>activity5 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
+          <t>activity6 (Chest x-ray without delay for for thrombolysis assessment)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -506,96 +506,77 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>activity6-1 (Blood work:
- CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
+          <t>activity7-1 (Blood work: CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>activity6-2 (Blood work:
- CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
+          <t>activity7-2 (Blood work: CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>dummy_Flow_12 ((dummy branch entry))</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>activity8 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway1 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>activity9 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>activity10 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway1Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>activity11 (Give patients appropriate cross-continuum secondary prevention assessments and therapies (All patients, whether admitted or discharged from the ED))</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>activity12 (Use a standard triage tool to determine the appropriate location for the care of patients (Patients with TIA))</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway2 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>activity13 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>activity14 (Vascular imaging of the brain and neck arteries ASAP)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway2Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>parallelgateway1Join (Parallel Merge)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>activity8 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway1 (Exclusive Gateway)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>activity9 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>activity10 (Proceed with further assessment as indicated (Role: medical staff; Objects: patient))</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway1Join (Exclusive Merge)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway2 (Exclusive Gateway)</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>activity11 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>activity12 (Continue standard care (Role: medical staff; Objects: patient))</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway2Join (Exclusive Merge)</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>activity13 (Give patients appropriate cross-continuum secondary prevention assessments and therapies
-(All patients, whether admitted or discharged from the ED)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>activity14 (Use a standard triage tool to determine the appropriate location for the care of patients
-(Patients with TIA))</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway3 (Exclusive Gateway)</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>activity15 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>activity16 (Vascular imaging of the brain and neck arteries ASAP)</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway3Join (Exclusive Merge)</t>
         </is>
       </c>
     </row>
@@ -692,15 +673,6 @@
       <c r="AD2" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -718,13 +690,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.214765100671141</v>
       </c>
       <c r="H3" t="n">
         <v>0.214765100671141</v>
@@ -751,13 +723,13 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2307692307692307</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2307692307692307</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="S3" t="n">
         <v>0.2209302325581395</v>
@@ -769,39 +741,30 @@
         <v>0.2409638554216867</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2261904761904762</v>
+        <v>0.1861471861471862</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1861471861471862</v>
+        <v>0.2568807339449541</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1587301587301587</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1986301369863014</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2477064220183486</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="AG3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -821,13 +784,13 @@
         <v>0.214765100671141</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214765100671141</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.214765100671141</v>
+        <v>0.09395973154362414</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -845,22 +808,22 @@
         <v>0.2080536912751678</v>
       </c>
       <c r="M4" t="n">
+        <v>0.2348993288590604</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.1879194630872483</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.2348993288590604</v>
       </c>
       <c r="O4" t="n">
         <v>0.09395973154362414</v>
       </c>
       <c r="P4" t="n">
-        <v>0.174496644295302</v>
+        <v>0.1812080536912751</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.174496644295302</v>
+        <v>0.1812080536912751</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.09395973154362414</v>
       </c>
       <c r="S4" t="n">
         <v>0.2325581395348837</v>
@@ -872,39 +835,30 @@
         <v>0.2416107382550335</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2281879194630873</v>
+        <v>0.2683982683982684</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.1812080536912751</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2683982683982684</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1946308724832215</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.174496644295302</v>
+        <v>0.2013422818791947</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.2885906040268457</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.2013422818791947</v>
-      </c>
-      <c r="AG4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -924,13 +878,13 @@
         <v>0.253968253968254</v>
       </c>
       <c r="E5" t="n">
-        <v>0.253968253968254</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.253968253968254</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="H5" t="n">
         <v>0.1476510067114094</v>
@@ -948,22 +902,22 @@
         <v>0.3055555555555556</v>
       </c>
       <c r="M5" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.1403508771929824</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.2295081967213115</v>
       </c>
       <c r="O5" t="n">
         <v>0.2571428571428571</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="S5" t="n">
         <v>0.1279069767441861</v>
@@ -975,39 +929,30 @@
         <v>0.1686746987951807</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09956709956709953</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.09956709956709953</v>
+        <v>0.1743119266055045</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1774193548387096</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.136986301369863</v>
+        <v>0.25</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1743119266055045</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.3580246913580247</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AG5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1027,13 +972,13 @@
         <v>0.2361111111111112</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2361111111111112</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2361111111111112</v>
+        <v>0.1388888888888888</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="H6" t="n">
         <v>0.2080536912751678</v>
@@ -1051,22 +996,22 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
+        <v>0.2638888888888888</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.2222222222222222</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2638888888888888</v>
       </c>
       <c r="O6" t="n">
         <v>0.1388888888888888</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2307692307692307</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2307692307692307</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1388888888888888</v>
       </c>
       <c r="S6" t="n">
         <v>0.2209302325581395</v>
@@ -1078,39 +1023,30 @@
         <v>0.1807228915662651</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.2034632034632035</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.2721088435374149</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2034632034632035</v>
+        <v>0.3119266055045872</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.2592592592592593</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.273972602739726</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3027522935779816</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.2592592592592593</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="AG6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1130,13 +1066,13 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1746031746031746</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="H7" t="n">
         <v>0.2348993288590604</v>
@@ -1154,22 +1090,22 @@
         <v>0.2638888888888888</v>
       </c>
       <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.180327868852459</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0.180327868852459</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2384615384615385</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2384615384615385</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="S7" t="n">
         <v>0.1976744186046512</v>
@@ -1181,39 +1117,30 @@
         <v>0.2771084337349398</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2023809523809523</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1688311688311688</v>
+        <v>0.2844036697247706</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1451612903225806</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2397260273972602</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.2752293577981652</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.2459016393442623</v>
-      </c>
-      <c r="AG7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1233,13 +1160,13 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1746031746031746</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="H8" t="n">
         <v>0.1879194630872483</v>
@@ -1257,22 +1184,22 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="M8" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.180327868852459</v>
       </c>
       <c r="O8" t="n">
         <v>0.1403508771929824</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2230769230769231</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2230769230769231</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="S8" t="n">
         <v>0.2034883720930233</v>
@@ -1284,39 +1211,30 @@
         <v>0.2168674698795181</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2023809523809523</v>
+        <v>0.1558441558441559</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1558441558441559</v>
+        <v>0.2660550458715596</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1612903225806451</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1917808219178082</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2568807339449541</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="AG8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1337,13 +1255,13 @@
         <v>0.2307692307692307</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2307692307692307</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2307692307692307</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="H9" t="n">
         <v>0.174496644295302</v>
@@ -1361,22 +1279,22 @@
         <v>0.2307692307692307</v>
       </c>
       <c r="M9" t="n">
+        <v>0.2384615384615385</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.2230769230769231</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.2384615384615385</v>
       </c>
       <c r="O9" t="n">
         <v>0.1153846153846154</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="S9" t="n">
         <v>0.2441860465116279</v>
@@ -1388,39 +1306,30 @@
         <v>0.2769230769230769</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2230769230769231</v>
+        <v>0.2251082251082251</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2251082251082251</v>
+        <v>0.2538461538461538</v>
       </c>
       <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.2076923076923077</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
       <c r="AB9" t="n">
-        <v>0.178082191780822</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2461538461538462</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.2076923076923077</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="AG9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1440,13 +1349,13 @@
         <v>0.2209302325581395</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2209302325581395</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2209302325581395</v>
+        <v>0.07558139534883723</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="H10" t="n">
         <v>0.2325581395348837</v>
@@ -1464,22 +1373,22 @@
         <v>0.2209302325581395</v>
       </c>
       <c r="M10" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.2034883720930233</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.1976744186046512</v>
       </c>
       <c r="O10" t="n">
         <v>0.07558139534883723</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2441860465116279</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2441860465116279</v>
+        <v>0.25</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.07558139534883723</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1491,39 +1400,30 @@
         <v>0.2906976744186046</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2209302325581395</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.2674418604651163</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2616279069767442</v>
       </c>
       <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="AB10" t="n">
         <v>0.1918604651162791</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.2674418604651163</v>
-      </c>
       <c r="AC10" t="n">
-        <v>0.2558139534883721</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.1918604651162791</v>
-      </c>
-      <c r="AG10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1543,13 +1443,13 @@
         <v>0.2409638554216867</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2409638554216867</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2409638554216867</v>
+        <v>0.1084337349397591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.2416107382550335</v>
       </c>
       <c r="H11" t="n">
         <v>0.2416107382550335</v>
@@ -1567,22 +1467,22 @@
         <v>0.1807228915662651</v>
       </c>
       <c r="M11" t="n">
+        <v>0.2771084337349398</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.2168674698795181</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.2771084337349398</v>
       </c>
       <c r="O11" t="n">
         <v>0.1084337349397591</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.1084337349397591</v>
       </c>
       <c r="S11" t="n">
         <v>0.2906976744186046</v>
@@ -1594,39 +1494,30 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1547619047619048</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.2312925170068028</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2048192771084337</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2328767123287672</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2110091743119266</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.1325301204819277</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="AG11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1646,13 +1537,13 @@
         <v>0.1861471861471862</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1861471861471862</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1861471861471862</v>
+        <v>0.06926406926406925</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.2683982683982684</v>
       </c>
       <c r="H12" t="n">
         <v>0.2683982683982684</v>
@@ -1670,22 +1561,22 @@
         <v>0.2034632034632035</v>
       </c>
       <c r="M12" t="n">
+        <v>0.1688311688311688</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.1558441558441559</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.1688311688311688</v>
       </c>
       <c r="O12" t="n">
         <v>0.06926406926406925</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2251082251082251</v>
+        <v>0.2294372294372294</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2251082251082251</v>
+        <v>0.2294372294372294</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.06926406926406925</v>
       </c>
       <c r="S12" t="n">
         <v>0.2727272727272727</v>
@@ -1697,39 +1588,30 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2554112554112554</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.1601731601731602</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
       <c r="AB12" t="n">
-        <v>0.2510822510822511</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2510822510822511</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.1471861471861472</v>
-      </c>
-      <c r="AG12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1826,15 +1708,6 @@
       <c r="AD13" t="n">
         <v>0</v>
       </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1853,13 +1726,13 @@
         <v>0.1986301369863014</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1986301369863014</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1986301369863014</v>
+        <v>0.08904109589041098</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="H14" t="n">
         <v>0.174496644295302</v>
@@ -1877,22 +1750,22 @@
         <v>0.273972602739726</v>
       </c>
       <c r="M14" t="n">
+        <v>0.2397260273972602</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.1917808219178082</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.2397260273972602</v>
       </c>
       <c r="O14" t="n">
         <v>0.08904109589041098</v>
       </c>
       <c r="P14" t="n">
-        <v>0.178082191780822</v>
+        <v>0.184931506849315</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.178082191780822</v>
+        <v>0.184931506849315</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.08904109589041098</v>
       </c>
       <c r="S14" t="n">
         <v>0.2674418604651163</v>
@@ -1904,39 +1777,30 @@
         <v>0.2328767123287672</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2328767123287672</v>
+        <v>0.2510822510822511</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.9863945578231292</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2510822510822511</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2123287671232876</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>0.2534246575342466</v>
       </c>
       <c r="AB14" t="n">
-        <v>1</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.2671232876712328</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.2534246575342466</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.1986301369863014</v>
-      </c>
-      <c r="AG14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1957,13 +1821,13 @@
         <v>0.2477064220183486</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2477064220183486</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2477064220183486</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="H15" t="n">
         <v>0.2885906040268457</v>
@@ -1981,22 +1845,22 @@
         <v>0.3027522935779816</v>
       </c>
       <c r="M15" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.2568807339449541</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.2752293577981652</v>
       </c>
       <c r="O15" t="n">
         <v>0.1100917431192661</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.2403100775193798</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.2403100775193798</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="S15" t="n">
         <v>0.2558139534883721</v>
@@ -2008,39 +1872,30 @@
         <v>0.2110091743119266</v>
       </c>
       <c r="V15" t="n">
+        <v>0.2510822510822511</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2789115646258503</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9908256880733946</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0.2385321100917431</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.2510822510822511</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.2935779816513762</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
       <c r="AB15" t="n">
-        <v>0.2671232876712328</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.2385321100917431</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.2752293577981652</v>
-      </c>
-      <c r="AG15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2117,34 +1972,25 @@
         <v>0.6470588235294117</v>
       </c>
       <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
         <v>1</v>
       </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
       <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
       <c r="AD16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2163,13 +2009,13 @@
         <v>0.1975308641975309</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="H17" t="n">
         <v>0.2348993288590604</v>
@@ -2196,13 +2042,13 @@
         <v>0.1358024691358025</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2076923076923077</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2076923076923077</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="S17" t="n">
         <v>0.2441860465116279</v>
@@ -2214,39 +2060,30 @@
         <v>0.1325301204819277</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.2534246575342466</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2385321100917431</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.3950617283950617</v>
-      </c>
-      <c r="AG17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,13 +2103,13 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2115384615384616</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.2013422818791947</v>
       </c>
       <c r="H18" t="n">
         <v>0.2013422818791947</v>
@@ -2290,22 +2127,22 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="M18" t="n">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.1403508771929824</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.2459016393442623</v>
       </c>
       <c r="O18" t="n">
         <v>0.2115384615384616</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.2115384615384616</v>
       </c>
       <c r="S18" t="n">
         <v>0.1918604651162791</v>
@@ -2317,39 +2154,30 @@
         <v>0.2168674698795181</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2023809523809523</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1471861471861472</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1774193548387096</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.1986301369863014</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.2752293577981652</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.3950617283950617</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2426,34 +2254,25 @@
         <v>1</v>
       </c>
       <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
       <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
         <v>1</v>
       </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
       <c r="AD19" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2549,15 +2368,6 @@
       <c r="AD20" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2575,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2614,52 +2424,43 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
         <v>0.625</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2755,15 +2556,6 @@
       <c r="AD22" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2838,34 +2630,25 @@
         <v>0.6470588235294117</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
         <v>1</v>
       </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
       <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
       <c r="AD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2941,34 +2724,25 @@
         <v>1</v>
       </c>
       <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
       <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
         <v>1</v>
       </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
       <c r="AD24" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2987,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3026,52 +2800,43 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
         <v>1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/similarity_matrix.xlsx
+++ b/similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,147 +436,145 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>StartEvent_1 (Start)</t>
+          <t>id64c58fce-5b77-4277-bd6e-325a3b70a3b6 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>EndEvent_1 (End)</t>
+          <t>id902a9355-167c-448e-af72-0fee94e49ce7 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>activity1 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+          <t>id512023c8-f0a8-48a8-9725-fd4ec6f2e87b (Parallel Gateway)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>parallelgateway1 (Parallel Gateway)</t>
+          <t>idf3f98844-5585-448e-babc-70a945e4d10e (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dummy_Flow_2 ((dummy branch entry))</t>
+          <t>idb3e42d2d-0545-4d8b-8a72-d0a387b6638e (Immediate brain imaging (CT or MRI))</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>activity2-1 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
+          <t>id086edce5-0f2f-478b-998e-f9a4917dca6d (Upon EMS prenotification, contact and call acute stroke team to ED)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>activity2-2 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
+          <t>id1a8d4a8f-ec1a-4433-b8c9-64e2212aa41b (CTAS I/II access to diagnostic imaging for suspected stroke/TIA patients)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>dummy_Flow_5 ((dummy branch entry))</t>
+          <t>id5c3d8696-c258-4943-9d1d-e42399ba9641 (start)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>activity3-1 (Immediate brain imaging (CT or MRI))</t>
+          <t>id9b4b6cf6-2352-4b6e-a108-1397198fdcf5 (Use a standard triage tool to determine the appropriate location for the care of patients
+(Patients with TIA))</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>activity3-2 (Immediate brain imaging (CT or MRI))</t>
+          <t>id17335463-839f-4891-80ab-3c9d83796173 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>activity4 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
+          <t>iddc7e020c-19ec-45db-a673-a4125e13bbb7 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>activity5 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
+          <t>idba97da51-dd94-4a7e-ac8d-980043a5c814 (Exclusive Merge)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>activity6 (Chest x-ray without delay for for thrombolysis assessment)</t>
+          <t>idc4acaf5c-3b0f-41bb-b735-ff31c28b4fb8 (Exclusive Merge)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>dummy_Flow_9 ((dummy branch entry))</t>
+          <t>id1cd19994-2445-4155-a2b8-65bb2823abd0 (Rapid initial evaluation for airway, breathing, and circulation)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>activity7-1 (Blood work: CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
+          <t>id7961c11c-d68e-4ab5-aae2-a2caf4cac86a (Vascular imaging of the brain and neck arteries ASAP)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>activity7-2 (Blood work: CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
+          <t>idcec5f945-9a53-407f-89b7-c2e800cc6270 (Blood work:
+ CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>dummy_Flow_12 ((dummy branch entry))</t>
+          <t>id22f118f9-464b-48f5-9953-411173ea0ff7 (Referral process for rapid-assessment TIA/minor stroke units or clinics for non-admitted patients)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>activity8 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+          <t>id0be010cc-37c2-424b-af57-b626019f3e62 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>exclusivegateway1 (Exclusive Gateway)</t>
+          <t>id74c1daa1-959b-4d5d-9108-b958453f20ea (Immediate expert healthcare provider interpretation of the brain imaging)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>activity9 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
+          <t>id3b706ccd-c4ac-415a-9853-e6e5ca45a80d (end)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>activity10 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
+          <t>ida9c8ae78-d909-4799-822f-50f9a5169da6 (EMS prenotifies receiving hospital about stroke/TIA patient arrival)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>exclusivegateway1Join (Exclusive Merge)</t>
+          <t>idbc6300db-2ab5-4847-b297-6823f22c5b82 (Exclusive Merge)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>activity11 (Give patients appropriate cross-continuum secondary prevention assessments and therapies (All patients, whether admitted or discharged from the ED))</t>
+          <t>id153ef512-56cb-470e-9153-70f33876ec49 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>activity12 (Use a standard triage tool to determine the appropriate location for the care of patients (Patients with TIA))</t>
+          <t>id8438b44b-7538-4817-bdcc-17b94b90b7b5 (EMS diverts suspected stroke/TIA patients to regional/district stroke centres (where feasible))</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>exclusivegateway2 (Exclusive Gateway)</t>
+          <t>id7f070bdf-5d17-44da-85b4-935f3e2d389d (Give patients appropriate cross-continuum secondary prevention assessments and therapies
+(All patients, whether admitted or discharged from the ED)</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>activity13 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
+          <t>idb19c2016-a92c-4df8-a139-df196c97b9be (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>activity14 (Vascular imaging of the brain and neck arteries ASAP)</t>
+          <t>idba6b110b-3f93-48bf-977b-29ede8089823 (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>exclusivegateway2Join (Exclusive Merge)</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>parallelgateway1Join (Parallel Merge)</t>
+          <t>ida6d1e95a-443e-40bb-9043-de93794ea1f2 (Parallel Merge)</t>
         </is>
       </c>
     </row>
@@ -587,7 +585,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -608,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -668,9 +666,6 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -681,90 +676,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.196969696969697</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2477064220183486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2409638554216867</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2268041237113402</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1861471861471862</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2361111111111112</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1791044776119403</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.214765100671141</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.214765100671141</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.253968253968254</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.253968253968254</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2361111111111112</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.2409638554216867</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1861471861471862</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1972789115646258</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0.2568807339449541</v>
+        <v>0.223404255319149</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,90 +767,87 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1476510067114094</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2281879194630873</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2281879194630873</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2885906040268457</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2416107382550335</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.214765100671141</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.09395973154362414</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="P4" t="n">
+        <v>0.2013422818791947</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2281879194630873</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2683982683982684</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2080536912751678</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2214765100671141</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.09395973154362414</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1476510067114094</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1476510067114094</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.1879194630872483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.09395973154362414</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.1812080536912751</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.1812080536912751</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.09395973154362414</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.2416107382550335</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.2683982683982684</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1812080536912751</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0.2953020134228188</v>
+        <v>0.2684563758389261</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2348993288590604</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2013422818791947</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -869,90 +858,87 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1743119266055045</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1686746987951807</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.253968253968254</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="P5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1649484536082474</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.09956709956709953</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1940298507462687</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>0.1476510067114094</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.1476510067114094</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.2295081967213115</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.1550387596899225</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.1550387596899225</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.1279069767441861</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.09956709956709953</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.1428571428571429</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0.1743119266055045</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3580246913580247</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -963,90 +949,87 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.2592592592592593</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.2638888888888888</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1388888888888888</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3027522935779816</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1807228915662651</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.2361111111111112</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1388888888888888</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="P6" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2371134020618557</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2034632034632035</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.2080536912751678</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1388888888888888</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.2638888888888888</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.1388888888888888</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.1388888888888888</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.2034632034632035</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.2721088435374149</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0.3119266055045872</v>
+        <v>0.2659574468085106</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2592592592592593</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1057,90 +1040,87 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2575757575757576</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2771084337349398</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.1746031746031746</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="P7" t="n">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2384615384615385</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2061855670103093</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1688311688311688</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.2638888888888888</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.2089552238805971</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2295081967213115</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.2295081967213115</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2638888888888888</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.248062015503876</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.248062015503876</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.2771084337349398</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.1688311688311688</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.2380952380952381</v>
-      </c>
       <c r="Y7" t="n">
-        <v>0.2844036697247706</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.2397260273972602</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2459016393442623</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1151,13 +1131,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1746031746031746</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1166,75 +1146,72 @@
         <v>0.1403508771929824</v>
       </c>
       <c r="G8" t="n">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2230769230769231</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2371134020618557</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1558441558441559</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1492537313432836</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>0.1879194630872483</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.1879194630872483</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.2248062015503876</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.2248062015503876</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2034883720930233</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.1558441558441559</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.1972789115646258</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0.2660550458715596</v>
+        <v>0.2021276595744681</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1403508771929824</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1246,90 +1223,87 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.2384615384615385</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.2307692307692307</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2461538461538462</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2769230769230769</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.2251082251082251</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.2615384615384615</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>0.174496644295302</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.174496644295302</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="Y9" t="n">
         <v>0.2384615384615385</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.2230769230769231</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.9846153846153847</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.9846153846153847</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.2769230769230769</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.2251082251082251</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.2538461538461538</v>
-      </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2076923076923077</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1923076923076923</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1340,90 +1314,87 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2441860465116279</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1918604651162791</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2906976744186046</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>0.2209302325581395</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.07558139534883723</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="P10" t="n">
+        <v>0.1918604651162791</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.2325581395348837</v>
       </c>
-      <c r="H10" t="n">
+      <c r="S10" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2151162790697675</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>0.2325581395348837</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.07558139534883723</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1279069767441861</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1279069767441861</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.2034883720930233</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.07558139534883723</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.07558139534883723</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.2906976744186046</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0.2674418604651163</v>
       </c>
-      <c r="Y10" t="n">
-        <v>0.2616279069767442</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
       <c r="AA10" t="n">
-        <v>0.2441860465116279</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1918604651162791</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,90 +1405,87 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1686746987951807</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.2409638554216867</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1084337349397591</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
+        <v>0.1927710843373494</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2906976744186046</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.2409638554216867</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2769230769230769</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.2371134020618557</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.1807228915662651</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2530120481927711</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>0.2416107382550335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.2416107382550335</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1084337349397591</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.2771084337349398</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.1084337349397591</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.1084337349397591</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.2906976744186046</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.2312925170068028</v>
-      </c>
       <c r="Y11" t="n">
-        <v>0.2110091743119266</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>0.2328767123287672</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1325301204819277</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2168674698795181</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1528,90 +1496,87 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.09956709956709953</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1731601731601732</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1731601731601732</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2510822510822511</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.1861471861471862</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.06926406926406925</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="P12" t="n">
+        <v>0.1471861471861472</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2251082251082251</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2034632034632035</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.1731601731601732</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>0.2683982683982684</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.2683982683982684</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.06926406926406925</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.09956709956709953</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.09956709956709953</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.2034632034632035</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.1688311688311688</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.1558441558441559</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.06926406926406925</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.2294372294372294</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.2294372294372294</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.06926406926406925</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.2597402597402597</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0.2554112554112554</v>
+        <v>0.1991341991341992</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>0.2510822510822511</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.1471861471861472</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1705,9 +1670,6 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1717,90 +1679,87 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.2534246575342466</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.2397260273972602</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2671232876712328</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2123287671232876</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2671232876712328</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2328767123287672</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2674418604651163</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>0.1986301369863014</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.08904109589041098</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="P14" t="n">
+        <v>0.1986301369863014</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.178082191780822</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.2808219178082192</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2510822510822511</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2465753424657534</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>0.174496644295302</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.174496644295302</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.08904109589041098</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.136986301369863</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.136986301369863</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.2397260273972602</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.1917808219178082</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.08904109589041098</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.184931506849315</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.184931506849315</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.08904109589041098</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.2328767123287672</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.2510822510822511</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.9863945578231292</v>
-      </c>
       <c r="Y14" t="n">
-        <v>0.273972602739726</v>
+        <v>0.2602739726027398</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2534246575342466</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.1986301369863014</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,90 +1771,87 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1743119266055045</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2385321100917431</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2660550458715596</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.2477064220183486</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1100917431192661</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="P15" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.2461538461538462</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.2510822510822511</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.3027522935779816</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>0.2885906040268457</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.2885906040268457</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.1100917431192661</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1743119266055045</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.1743119266055045</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.3027522935779816</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.2752293577981652</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.2568807339449541</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.1100917431192661</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.2403100775193798</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.2403100775193798</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.1100917431192661</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="Y15" t="n">
         <v>0.2110091743119266</v>
       </c>
-      <c r="V15" t="n">
-        <v>0.2510822510822511</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.2789115646258503</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.9908256880733946</v>
-      </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.2671232876712328</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.2385321100917431</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.2752293577981652</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1915,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1939,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1960,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1978,18 +1934,15 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
         <v>1</v>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AD16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2000,90 +1953,87 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3580246913580247</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2098765432098766</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2385321100917431</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1325301204819277</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1358024691358025</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="P17" t="n">
+        <v>0.3950617283950617</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1958762886597938</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.2592592592592593</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.1728395061728395</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.1358024691358025</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.3580246913580247</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.3580246913580247</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.2592592592592593</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.1358024691358025</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.1358024691358025</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.1325301204819277</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.2653061224489796</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0.2477064220183486</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>0.2534246575342466</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3950617283950617</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2094,90 +2044,87 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2361111111111112</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1918604651162791</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.2115384615384616</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.2164948453608248</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1471861471861472</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.1940298507462687</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>0.2013422818791947</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.2013422818791947</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2115384615384616</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.2459016393442623</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.2115384615384616</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.1937984496124031</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.1937984496124031</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.2115384615384616</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.1918604651162791</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.1471861471861472</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.1972789115646258</v>
-      </c>
       <c r="Y18" t="n">
-        <v>0.2752293577981652</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.3950617283950617</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2197,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2221,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2242,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2260,18 +2207,15 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2285,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2339,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2363,9 +2307,6 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2382,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2457,9 +2398,6 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
         <v>0.625</v>
       </c>
     </row>
@@ -2553,9 +2491,6 @@
       <c r="AC22" t="n">
         <v>0</v>
       </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2573,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2597,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2618,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2636,18 +2571,15 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
         <v>1</v>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AD23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2667,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2691,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2712,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2730,18 +2662,15 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2758,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E25" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2833,9 +2762,6 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/similarity_matrix.xlsx
+++ b/similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,145 +436,109 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id64c58fce-5b77-4277-bd6e-325a3b70a3b6 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
+          <t>id1b167223-b232-437e-afc7-8a194dc037d9 (Parallel Merge)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>id902a9355-167c-448e-af72-0fee94e49ce7 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
+          <t>id6962223d-23d5-4d19-8bb7-747988087b37 (Use a standard triage tool to determine the appropriate location for the care of patients (Patients with TIA))</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>id512023c8-f0a8-48a8-9725-fd4ec6f2e87b (Parallel Gateway)</t>
+          <t>id2bb95ff6-fea6-479e-9e17-b2edf2ae17eb (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>idf3f98844-5585-448e-babc-70a945e4d10e (Exclusive Gateway)</t>
+          <t>idc586a27a-fbea-4f7e-963d-aa088112a3b2 (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>idb3e42d2d-0545-4d8b-8a72-d0a387b6638e (Immediate brain imaging (CT or MRI))</t>
+          <t>idc1209817-b7c0-484c-bdc4-d279b8f4a970 (Exclusive Merge)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>id086edce5-0f2f-478b-998e-f9a4917dca6d (Upon EMS prenotification, contact and call acute stroke team to ED)</t>
+          <t>id8690752d-8c17-405b-9d09-d8b987db4bc1 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>id1a8d4a8f-ec1a-4433-b8c9-64e2212aa41b (CTAS I/II access to diagnostic imaging for suspected stroke/TIA patients)</t>
+          <t>id2cfe1cde-abeb-4047-ac99-0059f5e4ac04 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>id5c3d8696-c258-4943-9d1d-e42399ba9641 (start)</t>
+          <t>idf4791fc0-ff08-48d4-830e-8e153d0f8910 (Parallel Gateway)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>id9b4b6cf6-2352-4b6e-a108-1397198fdcf5 (Use a standard triage tool to determine the appropriate location for the care of patients
-(Patients with TIA))</t>
+          <t>ide0a852c8-5777-497b-9c77-8cee170af6c4 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>id17335463-839f-4891-80ab-3c9d83796173 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
+          <t>id63c499fa-78f5-4d5c-b9ef-0cba6b6132f5 (end)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>iddc7e020c-19ec-45db-a673-a4125e13bbb7 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+          <t>id0316786f-69ac-44c8-a87a-04a3808b7fe9 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>idba97da51-dd94-4a7e-ac8d-980043a5c814 (Exclusive Merge)</t>
+          <t>idf48fc97c-82e2-41de-a2dd-b2f38d7cc904 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>idc4acaf5c-3b0f-41bb-b735-ff31c28b4fb8 (Exclusive Merge)</t>
+          <t>idbfbde7ff-620b-4fa3-827c-9230465abc20 (Exclusive Merge)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>id1cd19994-2445-4155-a2b8-65bb2823abd0 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+          <t>id29d8c68f-0508-4a34-b79c-132c7feb47a7 (Rapid initial evaluation for airway, breathing, and circulation)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>id7961c11c-d68e-4ab5-aae2-a2caf4cac86a (Vascular imaging of the brain and neck arteries ASAP)</t>
+          <t>id562c1871-7a14-4727-9129-ef44f7bc1461 (start)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>idcec5f945-9a53-407f-89b7-c2e800cc6270 (Blood work:
+          <t>idbcd8206c-cfa7-4f9d-bc68-50b6a63bf8e9 (Give patients appropriate cross-continuum secondary prevention assessments and therapies
+(All patients, whether admitted or discharged from the ED)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>idfbaf06dd-4591-4a04-9cbe-6c8825a073dd (Immediate brain imaging (CT or MRI))</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ida8dd55c2-c2c1-4360-84d8-952e438b6ea8 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>id32b2aabf-b73c-4081-865e-c975133c2632 (Blood work:
  CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>id22f118f9-464b-48f5-9953-411173ea0ff7 (Referral process for rapid-assessment TIA/minor stroke units or clinics for non-admitted patients)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>id0be010cc-37c2-424b-af57-b626019f3e62 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>id74c1daa1-959b-4d5d-9108-b958453f20ea (Immediate expert healthcare provider interpretation of the brain imaging)</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>id3b706ccd-c4ac-415a-9853-e6e5ca45a80d (end)</t>
+          <t>id1f820a71-ced2-4731-9857-5f05065ad747 (Vascular imaging of the brain and neck arteries ASAP)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>ida9c8ae78-d909-4799-822f-50f9a5169da6 (EMS prenotifies receiving hospital about stroke/TIA patient arrival)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>idbc6300db-2ab5-4847-b297-6823f22c5b82 (Exclusive Merge)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>id153ef512-56cb-470e-9153-70f33876ec49 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>id8438b44b-7538-4817-bdcc-17b94b90b7b5 (EMS diverts suspected stroke/TIA patients to regional/district stroke centres (where feasible))</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>id7f070bdf-5d17-44da-85b4-935f3e2d389d (Give patients appropriate cross-continuum secondary prevention assessments and therapies
-(All patients, whether admitted or discharged from the ED)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>idb19c2016-a92c-4df8-a139-df196c97b9be (Exclusive Gateway)</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>idba6b110b-3f93-48bf-977b-29ede8089823 (Exclusive Gateway)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>ida6d1e95a-443e-40bb-9043-de93794ea1f2 (Parallel Merge)</t>
+          <t>ida45c621b-55c5-4d66-a56f-c27403ce9899 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
         </is>
       </c>
     </row>
@@ -606,29 +570,29 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.8</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
@@ -645,27 +609,6 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -676,40 +619,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="C3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.1746031746031746</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.253968253968254</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.196969696969697</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1805555555555556</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2477064220183486</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.2409638554216867</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2209302325581395</v>
+        <v>0.214765100671141</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.2361111111111112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -718,46 +661,25 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1986301369863014</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2409638554216867</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.2268041237113402</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="V3" t="n">
         <v>0.1861471861471862</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.2361111111111112</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1791044776119403</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.214765100671141</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.223404255319149</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.1986301369863014</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -767,40 +689,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2953020134228188</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="C4" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1476510067114094</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2281879194630873</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.2281879194630873</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2885906040268457</v>
-      </c>
       <c r="K4" t="n">
-        <v>0.2416107382550335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2325581395348837</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -809,46 +731,25 @@
         <v>0.214765100671141</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2013422818791947</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.174496644295302</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2281879194630873</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="S4" t="n">
+        <v>0.2416107382550335</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2013422818791947</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.2683982683982684</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.2214765100671141</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.2684563758389261</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.174496644295302</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -858,40 +759,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1743119266055045</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3580246913580247</v>
       </c>
-      <c r="C5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.2295081967213115</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1743119266055045</v>
-      </c>
       <c r="K5" t="n">
-        <v>0.1686746987951807</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1279069767441861</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -900,46 +801,25 @@
         <v>0.253968253968254</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1686746987951807</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.25</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.1649484536082474</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
         <v>0.09956709956709953</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.1940298507462687</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.1476510067114094</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.1914893617021277</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.136986301369863</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -949,40 +829,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3119266055045872</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2592592592592593</v>
       </c>
-      <c r="C6" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.2638888888888888</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1805555555555556</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1388888888888888</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.3027522935779816</v>
-      </c>
       <c r="K6" t="n">
-        <v>0.1807228915662651</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2209302325581395</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -991,46 +871,25 @@
         <v>0.2361111111111112</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1807228915662651</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.2371134020618557</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
         <v>0.2034632034632035</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.1666666666666666</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.2659574468085106</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1040,40 +899,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2844036697247706</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="C7" t="n">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2295081967213115</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2575757575757576</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2752293577981652</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.2771084337349398</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1976744186046512</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.2638888888888888</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1082,46 +941,25 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2397260273972602</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.2771084337349398</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.2384615384615385</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.2459016393442623</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0.2384615384615385</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.2061855670103093</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="V7" t="n">
         <v>0.1688311688311688</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.2638888888888888</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.2089552238805971</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.2553191489361702</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.2397260273972602</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1131,40 +969,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2660550458715596</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="C8" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.180327868852459</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1515151515151515</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.2083333333333334</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2568807339449541</v>
-      </c>
       <c r="K8" t="n">
-        <v>0.2168674698795181</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2034883720930233</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1173,46 +1011,25 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1917808219178082</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="T8" t="n">
         <v>0.2230769230769231</v>
       </c>
-      <c r="R8" t="n">
-        <v>0.2371134020618557</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.1558441558441559</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.1492537313432836</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.1879194630872483</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.2021276595744681</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.1917808219178082</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,10 +1040,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2076923076923077</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2384615384615385</v>
+        <v>0.2538461538461538</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2307692307692307</v>
+        <v>0.2441860465116279</v>
       </c>
       <c r="H9" t="n">
         <v>0.2076923076923077</v>
@@ -1247,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.2384615384615385</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2769230769230769</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2441860465116279</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.2307692307692307</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1265,46 +1082,25 @@
         <v>0.2307692307692307</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.178082191780822</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.2769230769230769</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.2076923076923077</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
         <v>0.2251082251082251</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.2615384615384615</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.174496644295302</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.2384615384615385</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.178082191780822</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,40 +1110,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2616279069767442</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="C10" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.1976744186046512</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1279069767441861</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1918604651162791</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2558139534883721</v>
-      </c>
       <c r="K10" t="n">
-        <v>0.2906976744186046</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1356,46 +1152,25 @@
         <v>0.2209302325581395</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.2674418604651163</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.2906976744186046</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.1918604651162791</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
         <v>0.2727272727272727</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.2151162790697675</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1405,40 +1180,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2906976744186046</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1325301204819277</v>
       </c>
-      <c r="C11" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.2771084337349398</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.2409638554216867</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1927710843373494</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.2110091743119266</v>
-      </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2906976744186046</v>
+        <v>0.2416107382550335</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1447,46 +1222,25 @@
         <v>0.2409638554216867</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2328767123287672</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.1686746987951807</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2769230769230769</v>
+      </c>
+      <c r="U11" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0.2769230769230769</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.2371134020618557</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="V11" t="n">
         <v>0.2380952380952381</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.2530120481927711</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.2416107382550335</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.2127659574468085</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.2328767123287672</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,40 +1250,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2554112554112554</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="C12" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.1688311688311688</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.09956709956709953</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.1731601731601732</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.1731601731601732</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.2510822510822511</v>
-      </c>
       <c r="K12" t="n">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2683982683982684</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.2034632034632035</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1538,46 +1292,25 @@
         <v>0.1861471861471862</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2510822510822511</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.09956709956709953</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2251082251082251</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.1471861471861472</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0.2251082251082251</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
         <v>1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.2034632034632035</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.1731601731601732</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.2683982683982684</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.1991341991341992</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.2510822510822511</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1649,27 +1382,6 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1679,40 +1391,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2674418604651163</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2534246575342466</v>
       </c>
-      <c r="C14" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.2397260273972602</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.136986301369863</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.2671232876712328</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.2123287671232876</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2671232876712328</v>
-      </c>
       <c r="K14" t="n">
-        <v>0.2328767123287672</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2674418604651163</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1721,46 +1433,25 @@
         <v>0.1986301369863014</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2328767123287672</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.178082191780822</v>
+      </c>
+      <c r="U14" t="n">
         <v>0.1986301369863014</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0.178082191780822</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.2808219178082192</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="V14" t="n">
         <v>0.2510822510822511</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.2465753424657534</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.174496644295302</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.2602739726027398</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1771,40 +1462,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9908256880733946</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2385321100917431</v>
       </c>
-      <c r="C15" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1743119266055045</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.2385321100917431</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.2660550458715596</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
       <c r="K15" t="n">
-        <v>0.2110091743119266</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2558139534883721</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.3027522935779816</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1813,46 +1504,25 @@
         <v>0.2477064220183486</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.2671232876712328</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1743119266055045</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.2461538461538462</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.2110091743119266</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
         <v>0.2510822510822511</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.3027522935779816</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.2752293577981652</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.2885906040268457</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.2110091743119266</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.2671232876712328</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1868,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1895,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0.6470588235294117</v>
@@ -1924,27 +1594,6 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1953,40 +1602,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2477064220183486</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.3580246913580247</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2345679012345679</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.2098765432098766</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.2385321100917431</v>
-      </c>
       <c r="K17" t="n">
-        <v>0.1325301204819277</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2441860465116279</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.2592592592592593</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1995,46 +1644,25 @@
         <v>0.1975308641975309</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2534246575342466</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3580246913580247</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.1325301204819277</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="U17" t="n">
         <v>0.3950617283950617</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0.2076923076923077</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.1958762886597938</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="V17" t="n">
         <v>0.1818181818181818</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.2592592592592593</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.1728395061728395</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.2127659574468085</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.2534246575342466</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2044,40 +1672,40 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1918604651162791</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.3950617283950617</v>
       </c>
-      <c r="C18" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.2459016393442623</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.2361111111111112</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.2752293577981652</v>
-      </c>
       <c r="K18" t="n">
-        <v>0.2168674698795181</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1918604651162791</v>
+        <v>0.2013422818791947</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2086,46 +1714,25 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1986301369863014</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="U18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.2164948453608248</v>
-      </c>
-      <c r="S18" t="n">
+      <c r="V18" t="n">
         <v>0.1471861471861472</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.1940298507462687</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.2013422818791947</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.2127659574468085</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.1986301369863014</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2141,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="E19" t="n">
         <v>0.6470588235294117</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2168,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -2197,27 +1804,6 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2253,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2283,30 +1869,9 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2317,29 +1882,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -2378,27 +1943,6 @@
       </c>
       <c r="V21" t="n">
         <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0.625</v>
       </c>
     </row>
     <row r="22">
@@ -2470,27 +2014,6 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2505,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2532,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0.6470588235294117</v>
@@ -2561,27 +2084,6 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2596,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="E24" t="n">
         <v>0.6470588235294117</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2623,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -2652,27 +2154,6 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2681,29 +2162,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0.625</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
@@ -2742,27 +2223,6 @@
       </c>
       <c r="V25" t="n">
         <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/similarity_matrix.xlsx
+++ b/similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:BF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,109 +436,290 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id1b167223-b232-437e-afc7-8a194dc037d9 (Parallel Merge)</t>
+          <t>StartEvent_1 (Start)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>id6962223d-23d5-4d19-8bb7-747988087b37 (Use a standard triage tool to determine the appropriate location for the care of patients (Patients with TIA))</t>
+          <t>EndEvent_1 (End)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>id2bb95ff6-fea6-479e-9e17-b2edf2ae17eb (Exclusive Gateway)</t>
+          <t>activity1-1 (Obtain patient history (Role: ED medical staff; Objects: patient))</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>idc586a27a-fbea-4f7e-963d-aa088112a3b2 (Exclusive Gateway)</t>
+          <t>activity1-2 (Perform physical examination (Role: ED medical staff; Objects: patient))</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>idc1209817-b7c0-484c-bdc4-d279b8f4a970 (Exclusive Merge)</t>
+          <t>activity1-3 (Assess neurological status (Role: ED medical staff; Objects: patient))</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>id8690752d-8c17-405b-9d09-d8b987db4bc1 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+          <t>activity2 (Measure blood glucose (Role: ED medical staff; Objects: patient))</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>id2cfe1cde-abeb-4047-ac99-0059f5e4ac04 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
+          <t>exclusivegateway1 (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>idf4791fc0-ff08-48d4-830e-8e153d0f8910 (Parallel Gateway)</t>
+          <t>activity3 (Correct hypoglycemia immediately)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ide0a852c8-5777-497b-9c77-8cee170af6c4 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
+          <t>activity4 (Repeat blood glucose measurement)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>id63c499fa-78f5-4d5c-b9ef-0cba6b6132f5 (end)</t>
+          <t>activity5 (Proceed with standard care (Role: ED medical staff; Objects: patient))</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>id0316786f-69ac-44c8-a87a-04a3808b7fe9 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
+          <t>exclusivegateway1Join (Exclusive Merge)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>idf48fc97c-82e2-41de-a2dd-b2f38d7cc904 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
+          <t>activity6 (Evaluate temperature as part of routine vital signs every 4 hours for first 48 hours)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>idbfbde7ff-620b-4fa3-827c-9230465abc20 (Exclusive Merge)</t>
+          <t>exclusivegateway2 (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>id29d8c68f-0508-4a34-b79c-132c7feb47a7 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+          <t>parallelgateway1 (Parallel Gateway)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>id562c1871-7a14-4727-9129-ef44f7bc1461 (start)</t>
+          <t>activity7 (initiate temperature-reducing measures)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>idbcd8206c-cfa7-4f9d-bc68-50b6a63bf8e9 (Give patients appropriate cross-continuum secondary prevention assessments and therapies
-(All patients, whether admitted or discharged from the ED)</t>
+          <t>activity8 (investigate potential infection)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>idfbaf06dd-4591-4a04-9cbe-6c8825a073dd (Immediate brain imaging (CT or MRI))</t>
+          <t>activity9 (initiate antipyretic and antimicrobial therapy)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>ida8dd55c2-c2c1-4360-84d8-952e438b6ea8 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
+          <t>parallelgateway1Join (Parallel Merge)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>id32b2aabf-b73c-4081-865e-c975133c2632 (Blood work:
- CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
+          <t>activity10 (Continue routine monitoring (Role: ED medical staff; Objects: patient))</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>id1f820a71-ced2-4731-9857-5f05065ad747 (Vascular imaging of the brain and neck arteries ASAP)</t>
+          <t>exclusivegateway2Join (Exclusive Merge)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>ida45c621b-55c5-4d66-a56f-c27403ce9899 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
+          <t>exclusivegateway3 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway2 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>activity12-1 (Brain CT scan)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>activity12-2 (Brain CT scan)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>activity12-3 (Interpret brain CT scan results (Role: ED medical staff; Objects: patient))</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>activity13 (initiation of antiplatelet therapy ASAP and no later than 24 hours after symptom onset)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway2Join (Parallel Merge)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway4 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>activity14 (such immediate care be provided at a specialized TIA/minor stroke clinic)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>activity15-1 (evaluation (as follows) occur at an appropriately resourced ED, and further consideration be given to inpatient evaluation and management for stroke prevention. OHTAC further recommends the establishment of accreditation standards for TIA/minor stroke care to ensure equitable access to appropriate, high-quality care, irrespective of the location of initial presentation)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>activity15-2 (evaluation (as follows) occur at an appropriately resourced ED, and further consideration be given to inpatient evaluation and management for stroke prevention. OHTAC further recommends the establishment of accreditation standards for TIA/minor stroke care to ensure equitable access to appropriate, high-quality care, irrespective of the location of initial presentation)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>activity16 (patients be referred for evaluation at a specialized TIA/minor stroke clinic or alternatively an outpatient clinic with stroke-prevention servicesd within 24 hours of initial presentation)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway4Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway3 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>activity17-1 (Brain CT scan)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>activity17-2 (Brain CT scan)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>activity17-3 (Interpret brain CT scan results (Role: ED medical staff; Objects: patient))</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>activity18 (initiation of antiplatelet therapy ASAP and no later than 24 hours after symptom onset)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway3Join (Parallel Merge)</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>activity19 (referral to an outpatient clinic with stroke-prevention servicesd for comprehensive evaluation and management within 1 month of symptom onset)</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway3Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway6 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>activity20 (should be evaluated in the ED to be considered for admission to hospital)</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>activity20-2 (Proceed to antiplatelet therapy assessment (Role: ED medical staff; Objects: patient))</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway6Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway5 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway7 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>inclusivegateway2 (Inclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>activity21 (Aspirin (ASA)
+160 mg as a loading dose, then a daily dose of 81–325 mg (usually 81 mg for maintenance))</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>activity22 (Clopidogrel
+300 mg as a loading dose, followed by 75 mg daily.)</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>activity23 (Extended-release Dipyridamole + Aspirin (Aggrenox)
+200 mg Dipyridamole + 25 mg Aspirin twice daily (initial dose includes ASA 160 mg))</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>inclusivegateway2Join (Inclusive Merge)</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>activity24 (Rectal or gastric ASA should be offered)</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway7Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>activity24-2 (other stroke-prevention treatments tailored to each patient)</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway5Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>activity25 (Give patients appropriate cross-continuum secondary prevention assessments and therapies)</t>
         </is>
       </c>
     </row>
@@ -549,7 +730,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -591,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -609,20 +790,128 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Activity_0wnu6ye (Rapid initial evaluation for airway, breathing, and circulation)</t>
+          <t>Gateway_0xpywbd (Parallel Gateway)</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2568807339449541</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -634,25 +923,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2209302325581395</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1746031746031746</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.214765100671141</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2361111111111112</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -664,35 +953,143 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1986301369863014</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.253968253968254</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2409638554216867</v>
+        <v>0.625</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2307692307692307</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1861471861471862</v>
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Activity_0r50tea (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
+          <t>Gateway_01prrg9 (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2953020134228188</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -704,135 +1101,351 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2325581395348837</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2348993288590604</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2348993288590604</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2080536912751678</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.214765100671141</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.174496644295302</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1476510067114094</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2416107382550335</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.174496644295302</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2013422818791947</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2683982683982684</v>
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Activity_0dzemrn (Immediate brain imaging (CT or MRI))</t>
+          <t>Activity_0wkp3es (Correct hypoglycemia immediately)</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1743119266055045</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.2253521126760564</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1279069767441861</v>
+        <v>0.21875</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3580246913580247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2295081967213115</v>
+        <v>0.21875</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1476510067114094</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.253968253968254</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.136986301369863</v>
+        <v>0.21875</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1686746987951807</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2285714285714285</v>
       </c>
       <c r="U5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09956709956709953</v>
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1891891891891891</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.06738544474393526</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.06738544474393526</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.1016042780748663</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.1891891891891891</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.1418439716312057</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.2096774193548387</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.1353383458646616</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.2203389830508474</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Activity_1azyuxe (Immediate expert healthcare provider interpretation of the brain imaging)</t>
+          <t>Gateway_1n80g9l (Exclusive Merge)</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3119266055045872</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -844,65 +1457,173 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2209302325581395</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2592592592592593</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2638888888888888</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2080536912751678</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2361111111111112</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.273972602739726</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3055555555555556</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1807228915662651</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2307692307692307</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2222222222222222</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2034632034632035</v>
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Activity_18d9arj (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
+          <t>Gateway_17d9e6n (Parallel Merge)</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2844036697247706</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -914,65 +1635,173 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1976744186046512</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2348993288590604</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2638888888888888</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.625</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2397260273972602</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2295081967213115</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2771084337349398</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2384615384615385</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2459016393442623</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1688311688311688</v>
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Activity_1l1hudq (Chest x-ray without delay for for thrombolysis assessment)</t>
+          <t>Event_1dr1e1y (End)</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2660550458715596</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -984,206 +1813,529 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2034883720930233</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.180327868852459</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1879194630872483</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1746031746031746</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1917808219178082</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1403508771929824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2168674698795181</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2230769230769231</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1403508771929824</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1558441558441559</v>
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Activity_1nzxm10 (Blood work:
- CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
+          <t>Activity_1xq5evs (Repeat blood glucose measurement)</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2538461538461538</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.2253521126760564</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2441860465116279</v>
+        <v>0.375</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2076923076923077</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2384615384615385</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="L9" t="n">
-        <v>0.174496644295302</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2285714285714285</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.2432432432432432</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.07277628032345018</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.07277628032345018</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.1229946524064172</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.2432432432432432</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.1560283687943262</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.1862745098039216</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.2096774193548387</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.1278195488721805</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
         <v>0.2307692307692307</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.178082191780822</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.2769230769230769</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.2251082251082251</v>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.2372881355932204</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.2159090909090909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Activity_127htfi (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+          <t>Activity_11aod7z (Evaluate temperature as part of routine vital signs every 4 hours for first 48 hours)</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2616279069767442</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.2023809523809523</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.2976190476190477</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.2261904761904762</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.1279069767441861</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.2906976744186046</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.2619047619047619</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1671159029649596</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1671159029649596</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.2406417112299465</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="AM10" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="U10" t="n">
-        <v>0.1918604651162791</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.2727272727272727</v>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.2340425531914894</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.1529411764705882</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.2023809523809523</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.2255639097744361</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.2023809523809523</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.2159090909090909</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Activity_007vkr3 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
+          <t>Gateway_0q27gcc (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2110091743119266</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1195,65 +2347,173 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2906976744186046</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1325301204819277</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2771084337349398</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2416107382550335</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1807228915662651</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2409638554216867</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2328767123287672</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1686746987951807</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2769230769230769</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2168674698795181</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="V11" t="n">
-        <v>0.2380952380952381</v>
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Activity_11dsn6a (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
+          <t>Gateway_0jfjj8f (Inclusive Gateway)</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2554112554112554</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1265,58 +2525,166 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2727272727272727</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1688311688311688</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2683982683982684</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2034632034632035</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1861471861471862</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2510822510822511</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09956709956709953</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2251082251082251</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1471861471861472</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gateway_0z31d7f (Inclusive Merge)</t>
+          <t>Activity_0dwd38r (initiate temperature-reducing measures)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1326,34 +2694,34 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.2976190476190477</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1362,173 +2730,495 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.2285714285714285</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.1891891891891891</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.08894878706199461</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.08894878706199461</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.1497326203208557</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.1891891891891891</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.1631205673758865</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.2235294117647059</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.1451612903225806</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.1654135338345865</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.2203389830508474</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Activity_07pokxo (Give patients appropriate cross-continuum secondary prevention assessments and therapies
-(All patients, whether admitted or discharged from the ED)</t>
+          <t>Activity_11p6hi8 (investigate potential infection)</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.273972602739726</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2674418604651163</v>
+        <v>0.25</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2534246575342466</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.21875</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2397260273972602</v>
+        <v>0.15625</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="L14" t="n">
-        <v>0.174496644295302</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.273972602739726</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1986301369863014</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.136986301369863</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2328767123287672</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.178082191780822</v>
+        <v>0.2714285714285715</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1986301369863014</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2510822510822511</v>
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.2567567567567568</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.2638888888888888</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.07816711590296499</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.07816711590296499</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.1390374331550802</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.2567567567567568</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.148936170212766</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.2470588235294118</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Activity_0a3vwyo (Use a standard triage tool to determine the appropriate location for the care of patients
-(Patients with TIA))</t>
+          <t>Activity_1ghc4an (initiate antipyretic and antimicrobial therapy)</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9908256880733946</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.2307692307692307</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.2112676056338029</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2558139534883721</v>
+        <v>0.140625</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2385321100917431</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2752293577981652</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.1884057971014492</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2885906040268457</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3027522935779816</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2477064220183486</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2671232876712328</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1743119266055045</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2110091743119266</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.2285714285714285</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2752293577981652</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2510822510822511</v>
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.2027027027027027</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.313953488372093</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1078167115902965</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.1078167115902965</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.2027027027027027</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.313953488372093</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.1843971631205674</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.2470588235294118</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.1774193548387096</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.2033898305084746</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0.2840909090909091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Gateway_16ljb8v (Exclusive Gateway)</t>
+          <t>Gateway_0w50k03 (Inclusive Merge)</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1538,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1568,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1592,20 +3282,128 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Activity_12vz3t2 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
+          <t>Gateway_1q7fvdo (Exclusive Merge)</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2477064220183486</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1617,128 +3415,344 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2441860465116279</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2348993288590604</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2592592592592593</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1975308641975309</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2534246575342466</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3580246913580247</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1325301204819277</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2076923076923077</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3950617283950617</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Activity_0u7hhi5 (Vascular imaging of the brain and neck arteries ASAP)</t>
+          <t>Activity_19y0anb (Give patients appropriate cross-continuum secondary prevention assessments and therapies)</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2752293577981652</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.2386363636363636</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1918604651162791</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3950617283950617</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2013422818791947</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1986301369863014</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="R18" t="n">
+        <v>0.2840909090909091</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.2386363636363636</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.1022727272727273</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.1022727272727273</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.2159090909090909</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.2159090909090909</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.2045454545454546</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.1778975741239892</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.1778975741239892</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.2459893048128342</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.1022727272727273</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.1022727272727273</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.2159090909090909</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.2159090909090909</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.2907801418439716</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.2386363636363636</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.1477272727272727</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.1704545454545454</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.2030075187969925</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
         <v>0.25</v>
       </c>
-      <c r="S18" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.1471861471861472</v>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Gateway_0wivcuy (Exclusive Merge)</t>
+          <t>Gateway_19mz2wi (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1748,19 +3762,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1772,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1799,16 +3813,124 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Event_0e3g186 (End)</t>
+          <t>Activity_1sg5ww2 (other stroke-prevention treatments tailored to each patient)</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1818,34 +3940,34 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.3098591549295775</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.265625</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.2203389830508474</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.2372881355932204</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.2023809523809523</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1854,35 +3976,143 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.2203389830508474</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.135593220338983</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.135593220338983</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2837837837837838</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1455525606469003</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1455525606469003</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.213903743315508</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.135593220338983</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.135593220338983</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.2837837837837838</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.2695035460992907</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.3294117647058824</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0.1864406779661016</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gateway_1ritzq1 (Parallel Gateway)</t>
+          <t>Gateway_0v0b82v (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1900,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1912,13 +4142,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1939,16 +4169,124 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Gateway_104hy99 (Inclusive Gateway)</t>
+          <t>Gateway_13hgxyn (Exclusive Merge)</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1970,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1982,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2009,16 +4347,124 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Gateway_1buah4x (Exclusive Gateway)</t>
+          <t>Activity_1j89x2a (evaluation (as follows) occur at an appropriately resourced ED, and further consideration be given to inpatient evaluation and management for stroke prevention. OHTAC further recommends the establishment of accreditation standards for TIA/minor stroke care to ensure equitable access to appropriate, high-quality care, irrespective of the location of initial presentation)</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2028,67 +4474,175 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0.1293800539083558</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6470588235294117</v>
+        <v>0.1266846361185984</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1185983827493261</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.06738544474393526</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.07277628032345018</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.1266846361185984</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.1671159029649596</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6470588235294117</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.08894878706199461</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.07816711590296499</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.1078167115902965</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.1347708894878706</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.03234501347708896</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.03234501347708896</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.1671159029649596</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.1536388140161725</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.307277628032345</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.03234501347708896</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.03234501347708896</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.1671159029649596</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.1563342318059299</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0.1590296495956873</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.1078167115902965</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.1644204851752021</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0.08086253369272234</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0.1455525606469003</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0.1778975741239892</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Gateway_0mcaqns (Exclusive Merge)</t>
+          <t>Activity_0ak6axd (patients be referred for evaluation at a specialized TIA/minor stroke clinic or alternatively an outpatient clinic with stroke-prevention servicesd within 24 hours of initial presentation)</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2098,104 +4652,212 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6470588235294117</v>
+        <v>0.1871657754010695</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6470588235294117</v>
+        <v>0.2032085561497327</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.1925133689839572</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.1229946524064172</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.1925133689839572</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.2406417112299465</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.1497326203208557</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.1764705882352942</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.2085561497326203</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.2245989304812834</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.2459893048128342</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.2459893048128342</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.307277628032345</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.307277628032345</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.2245989304812834</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.2459893048128342</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.3101604278074866</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.2459893048128342</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.2245989304812834</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0.213903743315508</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.160427807486631</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0.2299465240641712</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0.1283422459893048</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0.213903743315508</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0.2459893048128342</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Gateway_17t10we (Parallel Merge)</t>
+          <t>Activity_0gh1m4z (such immediate care be provided at a specialized TIA/minor stroke clinic)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.625</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2204,24 +4866,5122 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.2638888888888888</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.1388888888888888</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.1486486486486487</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.1536388140161725</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.1536388140161725</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.2459893048128342</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.1486486486486487</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.2198581560283688</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.211764705882353</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0.1862745098039216</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.2180451127819549</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0.2045454545454546</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Activity_0d6z69u (Brain CT scan)</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1384615384615384</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1408450704225352</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1159420289855072</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1285714285714286</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.03234501347708896</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.03234501347708896</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.07092198581560283</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0.135593220338983</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0.1022727272727273</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_0qe8owo (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Activity_1awdug5 (initiation of antiplatelet therapy ASAP and no later than 24 hours after symptom onset)</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2674418604651163</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.313953488372093</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.1671159029649596</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.1671159029649596</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.2459893048128342</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.2907801418439716</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.3488372093023255</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0.1804511278195489</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0.2159090909090909</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_1sf04z5 (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Activity_1ikqh4n (referral to an outpatient clinic with stroke-prevention servicesd for comprehensive evaluation and management within 1 month of symptom onset)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2340425531914894</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2056737588652482</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1985815602836879</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.1843971631205674</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1418439716312057</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1560283687943262</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2056737588652482</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.2340425531914894</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.1631205673758865</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.148936170212766</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1843971631205674</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.07092198581560283</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.07092198581560283</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.2907801418439716</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.2198581560283688</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.3101604278074866</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.07092198581560283</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.07092198581560283</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.2907801418439716</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.2624113475177305</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.2340425531914894</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0.1843971631205674</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.1631205673758865</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0.1418439716312057</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0.1631205673758865</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0.2695035460992907</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0.2907801418439716</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_1vbjyd9 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_0w634w0 (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_1s8splk (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Activity_0nwugoj (Aspirin (ASA)
+160 mg as a loading dose, then a daily dose of 81–325 mg (usually 81 mg for maintenance))</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.1862745098039216</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.2254901960784313</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.1862745098039216</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.1590296495956873</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.1590296495956873</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.213903743315508</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.1843971631205674</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Activity_19ytogb (Clopidogrel
+300 mg as a loading dose, followed by 75 mg daily.)</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1230769230769231</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1549295774647887</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.144927536231884</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2096774193548387</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2096774193548387</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.144927536231884</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.2023809523809523</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.1451612903225806</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1774193548387096</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.1756756756756757</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.1078167115902965</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.1078167115902965</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.160427807486631</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.1756756756756757</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.1631205673758865</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.2361111111111112</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.211764705882353</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>0.1704545454545454</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Activity_1n92f33 (Extended-release Dipyridamole + Aspirin (Aggrenox)
+200 mg Dipyridamole + 25 mg Aspirin twice daily (initial dose includes ASA 160 mg))</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1353383458646616</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1278195488721805</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.2255639097744361</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.1654135338345865</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.2255639097744361</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.1804511278195489</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.2180451127819549</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.1644204851752021</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.1644204851752021</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.2299465240641712</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.2255639097744361</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.1804511278195489</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.1418439716312057</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.2030075187969925</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>0.2030075187969925</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_0urjjn3 (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Activity_16mzwfk (Rectal or gastric ASA should be offered)</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2153846153846154</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1971830985915493</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2028985507246377</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.2028985507246377</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.08086253369272234</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.08086253369272234</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.1283422459893048</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.1631205673758865</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0.1864406779661016</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Activity_1i9insc (Brain CT scan)</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1384615384615384</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1408450704225352</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1159420289855072</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.1285714285714286</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.03234501347708896</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.03234501347708896</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.05882352941176472</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.07092198581560283</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0.135593220338983</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>0.1022727272727273</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_1w0ni4z (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Activity_0d01d4n (initiation of antiplatelet therapy ASAP and no later than 24 hours after symptom onset)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2674418604651163</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.313953488372093</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.1671159029649596</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.1671159029649596</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.2459893048128342</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.09302325581395354</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.2907801418439716</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.3488372093023255</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0.1804511278195489</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>0.2159090909090909</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_0f55z1z (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_0bmqkhk (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_0a1f2a2 (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_107proe (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Activity_0j7nq9c (Aspirin (ASA)
+160 mg as a loading dose, then a daily dose of 81–325 mg (usually 81 mg for maintenance))</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1372549019607843</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.1862745098039216</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.1568627450980392</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.2254901960784313</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.1862745098039216</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.1590296495956873</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.1590296495956873</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.213903743315508</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.08823529411764708</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0.1843971631205674</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Activity_0mbruqi (Clopidogrel
+300 mg as a loading dose, followed by 75 mg daily.)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1230769230769231</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1549295774647887</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.144927536231884</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.2096774193548387</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.2096774193548387</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.144927536231884</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2023809523809523</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.1451612903225806</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.1612903225806451</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.1774193548387096</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.1756756756756757</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.1078167115902965</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.1078167115902965</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.160427807486631</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.1756756756756757</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.186046511627907</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.1631205673758865</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.2361111111111112</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0.211764705882353</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>0.1704545454545454</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Activity_1nnvmgx (Extended-release Dipyridamole + Aspirin (Aggrenox)
+200 mg Dipyridamole + 25 mg Aspirin twice daily (initial dose includes ASA 160 mg))</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1353383458646616</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1278195488721805</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.2255639097744361</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.1654135338345865</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.2255639097744361</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.1804511278195489</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.2180451127819549</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.1644204851752021</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0.1644204851752021</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.2299465240641712</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.07518796992481203</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.2255639097744361</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0.1804511278195489</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.1418439716312057</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.2030075187969925</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>0.1879699248120301</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>0.2030075187969925</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_1s5fv1j (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Activity_0qh2i0q (Rectal or gastric ASA should be offered)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2153846153846154</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1971830985915493</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.2028985507246377</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2028985507246377</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.08086253369272234</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.08086253369272234</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.1283422459893048</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.1631205673758865</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0.1864406779661016</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_1f59etw (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Activity_18mn4vn (should be evaluated in the ED to be considered for admission to hospital)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.1388888888888888</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1388888888888888</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.1486486486486487</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.1563342318059299</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.1563342318059299</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0.2459893048128342</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0.1486486486486487</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.2624113475177305</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0.2352941176470589</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0.2156862745098039</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.2361111111111112</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0.2030075187969925</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0.2386363636363636</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Gateway_0izv3u5 (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/similarity_matrix.xlsx
+++ b/similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,142 +456,100 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>activity8 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+          <t>activity3 (Immediate brain imaging (CT or MRI))</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>activity4 (Immediate brain imaging (CT or MRI))</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway1 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>activity5 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>activity6 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>activity7_merged (Blood work:
+ CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>activity8 (Chest x-ray without delay for for thrombolysis assessment)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>activity9 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>exclusivegateway1 (Exclusive Gateway)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>activity9 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>activity10 (Proceed to next step (Role: medical staff))</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>activity10 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>activity11 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>exclusivegateway1Join (Exclusive Merge)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>activity13 (Use a standard triage tool to determine the appropriate location for the care of patients
+(Patients with TIA))</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>exclusivegateway2 (Exclusive Gateway)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>activity11 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>activity12 (Proceed to next step (Role: medical staff))</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>activity14 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>activity15 (Vascular imaging of the brain and neck arteries ASAP)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>exclusivegateway2Join (Exclusive Merge)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>parallelgateway1 (Parallel Gateway)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>activity3-1 (Immediate brain imaging (CT or MRI))</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>activity3-2 (Transport patient to imaging suite (Role: medical staff; Objects: patient))</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>activity3-3 (Immediate brain imaging (CT or MRI))</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>activity4 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>activity5 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>parallelgateway2 (Parallel Gateway)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>activity6-1 (Blood work: CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>activity6-2 (Blood work: CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
+          <t>parallelgateway1Join (Parallel Merge)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>parallelgateway2Join (Parallel Merge)</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>activity7 (Chest x-ray without delay for for thrombolysis assessment)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>activity13 (Give patients appropriate cross-continuum secondary prevention assessments and therapies (All patients, whether admitted or discharged from the ED))</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>activity14-1 (Use a standard triage tool to determine the appropriate location for the care of patients (Patients with TIA))</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>activity14-2 (Use a standard triage tool to determine the appropriate location for the care of patients (Patients with TIA))</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway3 (Exclusive Gateway)</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>activity15 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>activity16 (Vascular imaging of the brain and neck arteries ASAP)</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>exclusivegateway3Join (Exclusive Merge)</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>parallelgateway1Join (Parallel Merge)</t>
+          <t>activity12 (Give patients appropriate cross-continuum secondary prevention assessments and therapies
+(All patients, whether admitted or discharged from the ED)</t>
         </is>
       </c>
     </row>
@@ -670,33 +628,6 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -717,88 +648,61 @@
         <v>0.214765100671141</v>
       </c>
       <c r="F3" t="n">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.253968253968254</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2361111111111112</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.2209302325581395</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.2409638554216867</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.1587301587301587</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>0.1861471861471862</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.1587301587301587</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.253968253968254</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0.2162162162162162</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.253968253968254</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2361111111111112</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2325581395348837</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2325581395348837</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.1972789115646258</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.2568807339449541</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.2568807339449541</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.1986301369863014</v>
       </c>
     </row>
     <row r="4">
@@ -820,88 +724,61 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
+        <v>0.1476510067114094</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1476510067114094</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2080536912751678</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2348993288590604</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1879194630872483</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.2325581395348837</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.2416107382550335</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.1812080536912751</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>0.2683982683982684</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.1812080536912751</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.1476510067114094</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.214765100671141</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1476510067114094</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2080536912751678</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0.2348993288590604</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.2013422818791947</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1812080536912751</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1812080536912751</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.1879194630872483</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.1812080536912751</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.2953020134228188</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.2953020134228188</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.2013422818791947</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.174496644295302</v>
       </c>
     </row>
     <row r="5">
@@ -923,88 +800,61 @@
         <v>0.1476510067114094</v>
       </c>
       <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.1279069767441861</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.1686746987951807</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>0.09956709956709953</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0.2162162162162162</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0.1743119266055045</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3055555555555556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2295081967213115</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1550387596899225</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1550387596899225</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.1428571428571429</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.1743119266055045</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.1743119266055045</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.3580246913580247</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.136986301369863</v>
       </c>
     </row>
     <row r="6">
@@ -1026,88 +876,61 @@
         <v>0.2080536912751678</v>
       </c>
       <c r="F6" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2638888888888888</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.2209302325581395</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.1807228915662651</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.2083333333333334</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>0.2034632034632035</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.2083333333333334</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.3055555555555556</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0.1621621621621622</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.3027522935779816</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2638888888888888</v>
+        <v>0.2592592592592593</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2325581395348837</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2325581395348837</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.2721088435374149</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.3119266055045872</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.3119266055045872</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.2592592592592593</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="7">
@@ -1129,88 +952,61 @@
         <v>0.2348993288590604</v>
       </c>
       <c r="F7" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2638888888888888</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2384615384615385</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.1976744186046512</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.2771084337349398</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.2131147540983607</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="P7" t="n">
         <v>0.1688311688311688</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.2131147540983607</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.2295081967213115</v>
-      </c>
       <c r="Q7" t="n">
-        <v>0.2162162162162162</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2295081967213115</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2638888888888888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="V7" t="n">
-        <v>0.248062015503876</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.248062015503876</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.2844036697247706</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.2844036697247706</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.2459016393442623</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.2397260273972602</v>
       </c>
     </row>
     <row r="8">
@@ -1232,88 +1028,61 @@
         <v>0.1879194630872483</v>
       </c>
       <c r="F8" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2230769230769231</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.2034883720930233</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.1754385964912281</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
         <v>0.1558441558441559</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.1754385964912281</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0.2027027027027027</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0.2248062015503876</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2248062015503876</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.1972789115646258</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.2660550458715596</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.2660550458715596</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.1917808219178082</v>
       </c>
     </row>
     <row r="9">
@@ -1336,88 +1105,61 @@
         <v>0.174496644295302</v>
       </c>
       <c r="F9" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2384615384615385</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2230769230769231</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.2769230769230769</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
         <v>0.2251082251082251</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.1538461538461539</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0.2230769230769231</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2307692307692307</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2384615384615385</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9846153846153847</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9846153846153847</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.2230769230769231</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.2538461538461538</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.2538461538461538</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.2076923076923077</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.178082191780822</v>
       </c>
     </row>
     <row r="10">
@@ -1439,88 +1181,61 @@
         <v>0.2325581395348837</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>0.2906976744186046</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.1569767441860465</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="P10" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.1569767441860465</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.1279069767441861</v>
-      </c>
       <c r="Q10" t="n">
-        <v>0.2093023255813954</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1279069767441861</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2209302325581395</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1976744186046512</v>
+        <v>0.2441860465116279</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="V10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.2034883720930233</v>
-      </c>
-      <c r="Z10" t="n">
         <v>0.2674418604651163</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.2616279069767442</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.2616279069767442</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.1918604651162791</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1542,88 +1257,61 @@
         <v>0.2416107382550335</v>
       </c>
       <c r="F11" t="n">
+        <v>0.1686746987951807</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1686746987951807</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1807228915662651</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2771084337349398</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2769230769230769</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.2906976744186046</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.1325301204819277</v>
+      </c>
+      <c r="U11" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.2771084337349398</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.2771084337349398</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0.2790697674418605</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.2790697674418605</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.2312925170068028</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.2110091743119266</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0.2110091743119266</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.1325301204819277</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.2328767123287672</v>
       </c>
     </row>
     <row r="12">
@@ -1645,88 +1333,61 @@
         <v>0.2683982683982684</v>
       </c>
       <c r="F12" t="n">
+        <v>0.09956709956709953</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.09956709956709953</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2034632034632035</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1688311688311688</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2251082251082251</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1558441558441559</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="I12" t="n">
-        <v>0.1341991341991342</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.1341991341991342</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>0.09956709956709953</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1948051948051948</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09956709956709953</v>
+        <v>0.2510822510822511</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2034632034632035</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1688311688311688</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2294372294372294</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2294372294372294</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.1558441558441559</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.2597402597402597</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.2554112554112554</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.2554112554112554</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.1471861471861472</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
+        <v>0.2510822510822511</v>
       </c>
     </row>
     <row r="13">
@@ -1804,33 +1465,6 @@
       <c r="X13" t="n">
         <v>0</v>
       </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1852,88 +1486,61 @@
         <v>0.174496644295302</v>
       </c>
       <c r="F14" t="n">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.136986301369863</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2397260273972602</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.178082191780822</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1917808219178082</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.2674418604651163</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>0.2328767123287672</v>
       </c>
-      <c r="I14" t="n">
-        <v>0.184931506849315</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="P14" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.184931506849315</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.136986301369863</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0.2123287671232876</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.136986301369863</v>
+        <v>0.2671232876712328</v>
       </c>
       <c r="S14" t="n">
-        <v>0.273972602739726</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2397260273972602</v>
+        <v>0.2534246575342466</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="V14" t="n">
-        <v>0.184931506849315</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.184931506849315</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.1917808219178082</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.9863945578231292</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.2534246575342466</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.1986301369863014</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1956,88 +1563,61 @@
         <v>0.2885906040268457</v>
       </c>
       <c r="F15" t="n">
+        <v>0.1743119266055045</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1743119266055045</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3027522935779816</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2461538461538462</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.2558139534883721</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.2110091743119266</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.1834862385321101</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="P15" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.1834862385321101</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.1743119266055045</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0.2844036697247706</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1743119266055045</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3027522935779816</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0.2385321100917431</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
-        <v>0.2403100775193798</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2403100775193798</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.2568807339449541</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.2789115646258503</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.9908256880733946</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.9908256880733946</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.2385321100917431</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.2752293577981652</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
+        <v>0.2671232876712328</v>
       </c>
     </row>
     <row r="16">
@@ -2062,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2071,75 +1651,48 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AG16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,88 +1715,61 @@
         <v>0.2348993288590604</v>
       </c>
       <c r="F17" t="n">
+        <v>0.3580246913580247</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3580246913580247</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2592592592592593</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.1325301204819277</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="P17" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.3580246913580247</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0.2345679012345679</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3580246913580247</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2592592592592593</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1975308641975309</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2093023255813954</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2093023255813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.2653061224489796</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.2477064220183486</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.2477064220183486</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.3950617283950617</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
+        <v>0.2534246575342466</v>
       </c>
     </row>
     <row r="18">
@@ -2265,88 +1791,61 @@
         <v>0.2013422818791947</v>
       </c>
       <c r="F18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.1918604651162791</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="I18" t="n">
-        <v>0.1730769230769231</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="P18" t="n">
         <v>0.1471861471861472</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.1730769230769231</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.25</v>
-      </c>
       <c r="Q18" t="n">
-        <v>0.2702702702702703</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.25</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1937984496124031</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1937984496124031</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.1972789115646258</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.2752293577981652</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.2752293577981652</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.3950617283950617</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
+        <v>0.1986301369863014</v>
       </c>
     </row>
     <row r="19">
@@ -2371,44 +1870,44 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
@@ -2416,39 +1915,12 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2527,33 +1999,6 @@
       <c r="X20" t="n">
         <v>0</v>
       </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2580,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2601,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2619,43 +2064,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="X21" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2733,33 +2151,6 @@
       <c r="X22" t="n">
         <v>0</v>
       </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2783,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2792,75 +2183,48 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AG23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2886,44 +2250,44 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
@@ -2931,39 +2295,12 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.6470588235294117</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2992,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -3013,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3031,43 +2368,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/similarity_matrix.xlsx
+++ b/similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,104 +451,109 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>parallelgateway1 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>activity2 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>activity3 (Immediate brain imaging (CT or MRI))</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>activity4 (Immediate brain imaging (CT or MRI))</t>
+          <t>activity3-1 (Immediate brain imaging (CT or MRI))</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>parallelgateway1 (Parallel Gateway)</t>
+          <t>activity3-2 (Immediate brain imaging (CT or MRI))</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>activity5 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
+          <t>activity4 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>activity6 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
+          <t>activity5 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>activity7_merged (Blood work:
+          <t>activity6 (Chest x-ray without delay for for thrombolysis assessment)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>activity7 (Blood work:
  CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>activity8 (Chest x-ray without delay for for thrombolysis assessment)</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>activity9 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+          <t>activity9-1 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>activity9-2 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>exclusivegateway1 (Exclusive Gateway)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>activity10 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>activity11 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>exclusivegateway1Join (Exclusive Merge)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>activity13 (Use a standard triage tool to determine the appropriate location for the care of patients
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>activity12 (Use a standard triage tool to determine the appropriate location for the care of patients
 (Patients with TIA))</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>exclusivegateway2 (Exclusive Gateway)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>activity14 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>activity15 (Vascular imaging of the brain and neck arteries ASAP)</t>
+          <t>activity13 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>activity14 (Vascular imaging of the brain and neck arteries ASAP)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>exclusivegateway2Join (Exclusive Merge)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>parallelgateway1Join (Parallel Merge)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>activity12 (Give patients appropriate cross-continuum secondary prevention assessments and therapies
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>activity15 (Give patients appropriate cross-continuum secondary prevention assessments and therapies
 (All patients, whether admitted or discharged from the ED)</t>
         </is>
       </c>
@@ -628,6 +633,9 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -645,16 +653,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.214765100671141</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.253968253968254</v>
       </c>
       <c r="G3" t="n">
         <v>0.253968253968254</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="I3" t="n">
         <v>0.2361111111111112</v>
@@ -663,45 +671,48 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="K3" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.2307692307692307</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1746031746031746</v>
       </c>
       <c r="M3" t="n">
         <v>0.2209302325581395</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.2409638554216867</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.1861471861471862</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.2477064220183486</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.1986301369863014</v>
       </c>
     </row>
@@ -721,16 +732,16 @@
         <v>0.214765100671141</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1476510067114094</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0.1476510067114094</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="I4" t="n">
         <v>0.2080536912751678</v>
@@ -739,45 +750,48 @@
         <v>0.2348993288590604</v>
       </c>
       <c r="K4" t="n">
+        <v>0.1879194630872483</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.174496644295302</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1879194630872483</v>
       </c>
       <c r="M4" t="n">
         <v>0.2325581395348837</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.2416107382550335</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.2683982683982684</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.2885906040268457</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>0.2013422818791947</v>
       </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.174496644295302</v>
       </c>
     </row>
@@ -797,16 +811,16 @@
         <v>0.253968253968254</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.1476510067114094</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0.3055555555555556</v>
@@ -815,45 +829,48 @@
         <v>0.2295081967213115</v>
       </c>
       <c r="K5" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.1538461538461539</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1403508771929824</v>
       </c>
       <c r="M5" t="n">
         <v>0.1279069767441861</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.1686746987951807</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.09956709956709953</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.1743119266055045</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.3580246913580247</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0.25</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.136986301369863</v>
       </c>
     </row>
@@ -873,16 +890,16 @@
         <v>0.2361111111111112</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.2080536912751678</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3055555555555556</v>
       </c>
       <c r="G6" t="n">
         <v>0.3055555555555556</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -891,45 +908,48 @@
         <v>0.2638888888888888</v>
       </c>
       <c r="K6" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.2307692307692307</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2222222222222222</v>
       </c>
       <c r="M6" t="n">
         <v>0.2209302325581395</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>0.1807228915662651</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.2034632034632035</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.3027522935779816</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.2592592592592593</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0.273972602739726</v>
       </c>
     </row>
@@ -949,16 +969,16 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.2348993288590604</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2295081967213115</v>
       </c>
       <c r="G7" t="n">
         <v>0.2295081967213115</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="I7" t="n">
         <v>0.2638888888888888</v>
@@ -967,45 +987,48 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.2384615384615385</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.180327868852459</v>
       </c>
       <c r="M7" t="n">
         <v>0.1976744186046512</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.2771084337349398</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.1688311688311688</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>0.2459016393442623</v>
       </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.2397260273972602</v>
       </c>
     </row>
@@ -1025,16 +1048,16 @@
         <v>0.1746031746031746</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.1879194630872483</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1403508771929824</v>
       </c>
       <c r="G8" t="n">
         <v>0.1403508771929824</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="I8" t="n">
         <v>0.2222222222222222</v>
@@ -1043,45 +1066,48 @@
         <v>0.180327868852459</v>
       </c>
       <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.2230769230769231</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0.2034883720930233</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.1558441558441559</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.2568807339449541</v>
       </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.1917808219178082</v>
       </c>
     </row>
@@ -1102,16 +1128,16 @@
         <v>0.2307692307692307</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.174496644295302</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1538461538461539</v>
       </c>
       <c r="G9" t="n">
         <v>0.1538461538461539</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I9" t="n">
         <v>0.2307692307692307</v>
@@ -1120,45 +1146,48 @@
         <v>0.2384615384615385</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2230769230769231</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0.2441860465116279</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.2441860465116279</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.2769230769230769</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.2251082251082251</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>0.2461538461538462</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.2076923076923077</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.178082191780822</v>
       </c>
     </row>
@@ -1178,16 +1207,16 @@
         <v>0.2209302325581395</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.2325581395348837</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.1279069767441861</v>
       </c>
       <c r="G10" t="n">
         <v>0.1279069767441861</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="I10" t="n">
         <v>0.2209302325581395</v>
@@ -1196,45 +1225,48 @@
         <v>0.1976744186046512</v>
       </c>
       <c r="K10" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="L10" t="n">
-        <v>0.2034883720930233</v>
-      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.2906976744186046</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.2727272727272727</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>0.2558139534883721</v>
       </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>0.1918604651162791</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.2674418604651163</v>
       </c>
     </row>
@@ -1254,16 +1286,16 @@
         <v>0.2409638554216867</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.2416107382550335</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1686746987951807</v>
       </c>
       <c r="G11" t="n">
         <v>0.1686746987951807</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="I11" t="n">
         <v>0.1807228915662651</v>
@@ -1272,45 +1304,48 @@
         <v>0.2771084337349398</v>
       </c>
       <c r="K11" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.2769230769230769</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.2168674698795181</v>
       </c>
       <c r="M11" t="n">
         <v>0.2906976744186046</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.2906976744186046</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>0.2110091743119266</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>0.1325301204819277</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.2328767123287672</v>
       </c>
     </row>
@@ -1330,16 +1365,16 @@
         <v>0.1861471861471862</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.2683982683982684</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.09956709956709953</v>
       </c>
       <c r="G12" t="n">
         <v>0.09956709956709953</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.09956709956709953</v>
       </c>
       <c r="I12" t="n">
         <v>0.2034632034632035</v>
@@ -1348,45 +1383,48 @@
         <v>0.1688311688311688</v>
       </c>
       <c r="K12" t="n">
+        <v>0.1558441558441559</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.2251082251082251</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.1558441558441559</v>
       </c>
       <c r="M12" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>0.1471861471861472</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0.2510822510822511</v>
       </c>
     </row>
@@ -1465,6 +1503,9 @@
       <c r="X13" t="n">
         <v>0</v>
       </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1483,16 +1524,16 @@
         <v>0.1986301369863014</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.174496644295302</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.136986301369863</v>
       </c>
       <c r="G14" t="n">
         <v>0.136986301369863</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="I14" t="n">
         <v>0.273972602739726</v>
@@ -1501,45 +1542,48 @@
         <v>0.2397260273972602</v>
       </c>
       <c r="K14" t="n">
+        <v>0.1917808219178082</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.178082191780822</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.1917808219178082</v>
       </c>
       <c r="M14" t="n">
         <v>0.2674418604651163</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.2674418604651163</v>
       </c>
       <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>0.2328767123287672</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.2671232876712328</v>
       </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>0.2534246575342466</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>0.1986301369863014</v>
       </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1560,16 +1604,16 @@
         <v>0.2477064220183486</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.2885906040268457</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1743119266055045</v>
       </c>
       <c r="G15" t="n">
         <v>0.1743119266055045</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.1743119266055045</v>
       </c>
       <c r="I15" t="n">
         <v>0.3027522935779816</v>
@@ -1578,45 +1622,48 @@
         <v>0.2752293577981652</v>
       </c>
       <c r="K15" t="n">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="L15" t="n">
         <v>0.2461538461538462</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.2568807339449541</v>
       </c>
       <c r="M15" t="n">
         <v>0.2558139534883721</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>0.2110091743119266</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.2385321100917431</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>0.2671232876712328</v>
       </c>
     </row>
@@ -1663,36 +1710,39 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
       <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1712,16 +1762,16 @@
         <v>0.1975308641975309</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.2348993288590604</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.3580246913580247</v>
       </c>
       <c r="G17" t="n">
         <v>0.3580246913580247</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.3580246913580247</v>
       </c>
       <c r="I17" t="n">
         <v>0.2592592592592593</v>
@@ -1730,45 +1780,48 @@
         <v>0.1975308641975309</v>
       </c>
       <c r="K17" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.2076923076923077</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.1975308641975309</v>
       </c>
       <c r="M17" t="n">
         <v>0.2441860465116279</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.2441860465116279</v>
       </c>
       <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>0.1325301204819277</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>0.2385321100917431</v>
       </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
         <v>0.3950617283950617</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>0.2534246575342466</v>
       </c>
     </row>
@@ -1788,16 +1841,16 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.2013422818791947</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.25</v>
       </c>
       <c r="G18" t="n">
         <v>0.25</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I18" t="n">
         <v>0.2222222222222222</v>
@@ -1806,45 +1859,48 @@
         <v>0.2459016393442623</v>
       </c>
       <c r="K18" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.1923076923076923</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.1403508771929824</v>
       </c>
       <c r="M18" t="n">
         <v>0.1918604651162791</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>0.1471861471861472</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.3950617283950617</v>
       </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>0.1986301369863014</v>
       </c>
     </row>
@@ -1891,36 +1947,39 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1999,6 +2058,9 @@
       <c r="X20" t="n">
         <v>0</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2016,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2025,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2070,9 +2132,12 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>0.625</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2151,6 +2216,9 @@
       <c r="X22" t="n">
         <v>0</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2195,36 +2263,39 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2271,36 +2342,39 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2320,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2329,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2374,9 +2448,12 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/similarity_matrix.xlsx
+++ b/similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:CF25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,115 +446,407 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>activity1 (Rapid initial evaluation for airway, breathing, and circulation)</t>
+          <t>activity1 (Suspect stroke/TIA and initiate stroke/TIA protocol including prenotification to receiving hospital (Role: EMS; Objects: suspected stroke/TIA patient, EMS prenotification process))</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>activity1_1 (Perform on-scene stroke/TIA assessment and stabilize patient per EMS stroke protocol (Role: EMS; Objects: prehospital stroke assessment tool, monitoring equipment))</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>activity1_2 (Initiate prenotification call or electronic alert to receiving hospital with key stroke/TIA information (Role: EMS; Objects: EMS communication system, prenotification template))</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway1 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>activity2 (Divert suspected stroke/TIA patient to regional or district stroke centre (Role: EMS; Objects: regional/district stroke centre destination))</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>activity3 (Transport suspected stroke/TIA patient to nearest appropriate hospital (Role: EMS; Objects: nearest appropriate hospital))</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway1Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>activity4 (Register and triage patient as CTAS I or CTAS II for suspected stroke/TIA (Role: ED triage nurse; Objects: triage record, CTAS scale))</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>activity5 (Notify acute stroke team upon EMS prenotification or triage identification of suspected stroke/TIA (for appropriate patients) (Role: ED clerk; Objects: acute stroke team contact list))</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>parallelgateway1 (Parallel Gateway)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>activity2 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>activity3-1 (Immediate brain imaging (CT or MRI))</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>activity3-2 (Immediate brain imaging (CT or MRI))</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>activity4 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>activity5 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>activity6 (Chest x-ray without delay for for thrombolysis assessment)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>activity7 (Blood work:
- CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>activity9-1 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>activity9-2 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+          <t>activity6 (Rapid initial evaluation for airway, breathing, and circulation)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>exclusivegateway1 (Exclusive Gateway)</t>
+          <t>exclusivegateway7 (Exclusive Gateway)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>activity10 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
+          <t>activity6_1 (Proceed with routine monitoring of airway, breathing, and circulation (Role: ED/acute care nurse or physician; Objects: vital signs monitor, observation chart))</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>activity11 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
+          <t>activity6_2 (Initiate immediate stabilization interventions for compromised ABC (e.g., airway positioning, oxygen, IV access, resuscitation) (Role: ED/acute care nurse or physician; Objects: airway equipment, oxygen supply, IV equipment, resuscitation cart))</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>exclusivegateway1Join (Exclusive Merge)</t>
+          <t>exclusivegateway7Join (Exclusive Merge)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>activity12 (Use a standard triage tool to determine the appropriate location for the care of patients
-(Patients with TIA))</t>
+          <t>activity7 (Initiate standardized stroke/TIA assessment and treatment protocol/tool (Role: ED/acute care nurse or physician; Objects: hospital stroke/TIA protocol, standardized tools))</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>parallelgateway6 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>activity7_1 (Apply standardized stroke/TIA screening scale and document findings (Role: ED/acute care nurse or physician; Objects: stroke/TIA screening form, electronic health record))</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>activity7_2 (Initiate time-critical stroke/TIA orders (e.g., labs, imaging, IV access) according to protocol (Role: ED/acute care nurse or physician; Objects: order entry system, stroke order set))</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway6Join (Parallel Merge)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>activity8_revised (Ensure sufficient stroke unit, staffing, and hospital resource capacity for timely diagnosis and treatment (Role: hospital administration and stroke program leaders; Objects: staffing plan, stroke unit resources, on-call lists))</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway1Join (Parallel Merge)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway2 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>activity9 (neurological examination to determine focal neurological deficits and assess stroke severity on a standardized stroke scale (NIHSS or CNS for stroke))</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>activity9_1 (Conduct focused neurological examination to identify focal deficits (Role: neurologist or trained physician; Objects: neurological exam tools, patient chart))</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>activity9_2 (Score stroke severity using NIHSS or CNS and record baseline score (Role: neurologist or trained physician; Objects: NIHSS or CNS scale, documentation system))</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>activity10_1 (Select appropriate brain imaging modality (CT vs MRI) based on clinical status and availability (Role: ED/acute care physician or radiologist; Objects: clinical guidelines, imaging availability information))</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>activity10_2 (Immediate brain imaging (CT or MRI))</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>activity11 (ECG to detect atrial fibrillation and other acute arrhythmias)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>activity12 (Blood work:  CBC, electrolytes, creatinine, glucose, INR, partial thromboplastin time, and troponin test (if clinically indicated))</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>activity13 (Chest x-ray without delay for for thrombolysis assessment)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway2Join (Parallel Merge)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>activity14 (Immediate expert healthcare provider interpretation of the brain imaging)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>activity14_1 (Rapidly review brain imaging for hemorrhage, large vessel occlusion, and other acute findings (Role: radiologist or qualified physician; Objects: CT/MRI images, viewing workstation))</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>activity14_2 (Document formal imaging report and communicate critical findings immediately to stroke team (Role: radiologist or qualified physician; Objects: radiology reporting system, communication tools))</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway3 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>activity15 (Make patient NPO (nothing by mouth) initially and screen their swallowing ability as part of their initial assessment and before initiating oral medication, fluid, or food.)</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>activity16 (Screen swallowing ability using simple, valid, reliable bedside testing protocol as part of initial assessment and before any oral medication, fluid, or food (Role: ED/acute care nurse or trained clinician; Objects: bedside swallowing screening protocol))</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>activity16_1 (Perform bedside swallowing screen according to protocol (Role: ED/acute care nurse or trained clinician; Objects: swallowing screening checklist))</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>activity16_2 (Document swallowing screen result and communicate NPO or diet plan to team (Role: ED/acute care nurse or trained clinician; Objects: patient chart, communication tools))</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>exclusivegateway2 (Exclusive Gateway)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>activity13 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>activity14 (Vascular imaging of the brain and neck arteries ASAP)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>activity17 (Monitor patient closely and swallowing ability screened when clinically appropriate)</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>activity18 (Continue routine neurological and swallowing status monitoring per stroke protocol (Role: stroke unit/ED nurse; Objects: neurological observation chart))</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>exclusivegateway2Join (Exclusive Merge)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>parallelgateway1Join (Parallel Merge)</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>activity15 (Give patients appropriate cross-continuum secondary prevention assessments and therapies
-(All patients, whether admitted or discharged from the ED)</t>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway3 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>activity19 (Full clinical assessment of the patient's swallowing ability by an expert (by a speech-language pathologist or appropriately trained specialist who would advise on swallowing ability and the required consistency of diet and fluids))</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>activity20 (Proceed with standard diet advancement per local stroke protocol after passing bedside screen (Role: stroke team; Objects: standard diet order set))</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway3Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway3Join (Parallel Merge)</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway4 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>activity22 (Use a standard triage tool to determine the appropriate location for the care of patients  (Patients with TIA))</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>activity22_1 (Collect required clinical information and scores for TIA triage tool (Role: ED/acute care clinician; Objects: patient history, examination findings, triage form))</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>activity22_2 (Determine and document recommended care location based on TIA triage tool result (Role: ED/acute care clinician; Objects: triage tool algorithm, patient chart))</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway4 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway5 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>activity23 (Immediate vascular imaging of the neck arteries (carotid ultrasound, CTA, or MRA))</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>activity23_1 (Select vascular imaging modality (carotid ultrasound, CTA, or MRA) based on clinical factors and availability (Role: stroke/ED physician or radiology team; Objects: clinical guidelines, imaging resources))</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>activity23_2 (Perform neck vascular imaging using selected modality (Role: radiology/vascular technologist; Objects: vascular imaging equipment, imaging protocol))</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>activity24 (Vascular imaging of the brain and neck arteries ASAP)</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>activity24_1 (Plan combined brain and neck vascular imaging strategy (CTA/MRA/ultrasound) (Role: stroke/ED physician or radiology team; Objects: clinical guidelines, imaging resources))</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>activity24_2 (Perform ordered vascular imaging of brain and/or neck arteries (Role: radiology/vascular technologist; Objects: vascular imaging equipment, imaging protocol))</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway5Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway6 (Exclusive Gateway)</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>activity25 (Refer patient to rapid-assessment TIA/minor stroke unit, TIA clinic, or provincial stroke-prevention clinic (Role: ED/stroke physician or coordinator; Objects: referral form, appointment system))</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>activity26 (Coordinate in-hospital stroke-prevention assessment and plan follow-up in stroke-prevention clinic (Role: inpatient stroke team; Objects: inpatient orders, follow-up referral))</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway6Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway4Join (Parallel Merge)</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>activity27 (Manage patient according to appropriate non-TIA/non-minor-stroke stroke pathway (outside scope of this module) (Role: stroke/ED physician; Objects: alternative stroke pathway protocol))</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>exclusivegateway4Join (Exclusive Merge)</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway5 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>activity28 (Provide ongoing education to EMS crews on recognition of stroke/TIA symptoms and regional medical redirect protocols (Role: hospital/EMS educators; Objects: education materials, training sessions))</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>activity29 (Collaborate between local EMS and stroke service institutions to support quality improvement and access to stroke care (Role: stroke network coordinators; Objects: stroke network agreements, QI data))</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>activity30 (Maintain standardized stroke/TIA assessment and treatment protocols/tools in all EDs (Role: hospital administration and stroke program leaders; Objects: standardized protocols, clinical decision support tools))</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>activity31 (Ensure CTAS I/II suspected stroke/TIA patients have prioritized access to diagnostic imaging for early assessment (Role: hospital administration and radiology leadership; Objects: imaging scheduling system, CT/MRI capacity))</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>activity32 (Conduct and sustain public awareness campaigns about stroke/TIA symptoms and when to contact 911 (Role: public health and stroke advocacy organizations; Objects: public campaigns, media materials))</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway5Join (Parallel Merge)</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>activity21 (Give patients appropriate cross-continuum secondary prevention assessments and therapies  (All patients, whether admitted or discharged from the ED)</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway7 (Parallel Gateway)</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>activity21_1 (Perform secondary prevention risk assessment (vascular risk factors, etiology, recurrence risk) (Role: stroke/ED physician or stroke prevention team; Objects: risk assessment tools, patient history, diagnostic results))</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>activity21_2 (Initiate secondary prevention therapies and provide patient/caregiver education (Role: stroke/ED physician or stroke prevention team; Objects: medication prescriptions, lifestyle counseling materials, follow-up plan))</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>parallelgateway7Join (Parallel Merge)</t>
         </is>
       </c>
     </row>
@@ -636,6 +928,183 @@
       <c r="Y2" t="n">
         <v>0</v>
       </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -650,70 +1119,247 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0.2122905027932961</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1779141104294478</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1988636363636364</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2230215827338129</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2148760330578512</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1912568306010929</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2704402515723271</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1844262295081968</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1871345029239766</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1941176470588235</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.1850220264317181</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0.214765100671141</v>
       </c>
-      <c r="G3" t="n">
+      <c r="AB3" t="n">
+        <v>0.2229299363057324</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.1962025316455697</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2087378640776699</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0.253968253968254</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.253968253968254</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="AF3" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>0.2361111111111112</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1746031746031746</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="AK3" t="n">
+        <v>0.2430939226519337</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0.2209302325581395</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="AO3" t="n">
+        <v>0.1732283464566929</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2137931034482758</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2202380952380952</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
         <v>0.2409638554216867</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AT3" t="n">
+        <v>0.2236842105263158</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
         <v>0.1861471861471862</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.2477064220183486</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="AX3" t="n">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.2298136645962733</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.2138364779874213</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="V3" t="n">
+      <c r="BH3" t="n">
+        <v>0.1911764705882353</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.1891891891891891</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.1986301369863014</v>
+      <c r="BK3" t="n">
+        <v>0.211764705882353</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1847133757961783</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.1855670103092784</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.1942857142857143</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.1887755102040817</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.1708542713567839</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.1770334928229665</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.1704035874439462</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.173469387755102</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.1972789115646258</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.1743119266055045</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.1898148148148148</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -729,70 +1375,247 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0.2681564245810056</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2269938650306749</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2329545454545454</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1946308724832215</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2013422818791947</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2080536912751678</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2513661202185792</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.214765100671141</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2012578616352201</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2540983606557377</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2352941176470589</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2687224669603524</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="AB4" t="n">
+        <v>0.3121019108280255</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2151898734177216</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2621359223300971</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.1476510067114094</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.1476510067114094</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="AF4" t="n">
+        <v>0.2348993288590604</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.1879194630872483</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>0.2080536912751678</v>
       </c>
-      <c r="J4" t="n">
+      <c r="AK4" t="n">
+        <v>0.2430939226519337</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2552083333333334</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2519685039370079</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.1879194630872483</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2083333333333334</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2416107382550335</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.1973684210526315</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.2683982683982684</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.214765100671141</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.2953020134228188</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.1987577639751553</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.2138364779874213</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.1879194630872483</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="BH4" t="n">
+        <v>0.2745098039215687</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.1610738255033557</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.2013422818791947</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.2352941176470589</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.1719745222929936</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.2577319587628866</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.2457142857142857</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.2391304347826086</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.2663316582914573</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.3062200956937799</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.2466367713004485</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.2193877551020408</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
         <v>0.174496644295302</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.2416107382550335</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.2683982683982684</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.2885906040268457</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.2348993288590604</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.2013422818791947</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.174496644295302</v>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.2614678899082569</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.2731481481481481</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -808,70 +1631,247 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1284916201117319</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1288343558282209</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1306818181818182</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1438848920863309</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1487603305785123</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1353383458646616</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1202185792349727</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.253968253968254</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1446540880503144</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1188524590163934</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1286549707602339</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1294117647058823</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1366120218579235</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1057268722466961</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0.1476510067114094</v>
       </c>
-      <c r="G5" t="n">
+      <c r="AB5" t="n">
+        <v>0.1337579617834395</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.120253164556962</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1407766990291263</v>
+      </c>
+      <c r="AE5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="AF5" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>0.3055555555555556</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.2295081967213115</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="AK5" t="n">
+        <v>0.143646408839779</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.1354166666666666</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>0.1279069767441861</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.1279069767441861</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="AO5" t="n">
+        <v>0.09448818897637801</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.1517241379310345</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.1369047619047619</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
         <v>0.1686746987951807</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AT5" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
         <v>0.09956709956709953</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.1743119266055045</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="AX5" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.1727272727272727</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.1304347826086957</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.1383647798742138</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
         <v>0.3580246913580247</v>
       </c>
-      <c r="V5" t="n">
+      <c r="BH5" t="n">
+        <v>0.1127450980392157</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.1554054054054054</v>
+      </c>
+      <c r="BJ5" t="n">
         <v>0.25</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.136986301369863</v>
+      <c r="BK5" t="n">
+        <v>0.1411764705882353</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.1528662420382165</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.1082474226804123</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.1086956521739131</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.1122448979591837</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.1055276381909548</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.1148325358851675</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.1300448430493274</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.1122448979591837</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.1360544217687075</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.1055045871559633</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.1064814814814815</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -887,70 +1887,247 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0.2178770949720671</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2208588957055214</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2329545454545454</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2446043165467626</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2231404958677686</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2131147540983607</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.2361111111111112</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2327044025157232</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2090163934426229</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.216374269005848</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2021857923497268</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1850220264317181</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.2080536912751678</v>
       </c>
-      <c r="G6" t="n">
+      <c r="AB6" t="n">
+        <v>0.2165605095541401</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.2151898734177216</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1941747572815534</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0.3055555555555556</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="AF6" t="n">
+        <v>0.2638888888888888</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.2638888888888888</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="AK6" t="n">
+        <v>0.2154696132596685</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.2344827586206897</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1807228915662651</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.2171052631578947</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.2034632034632035</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.2236024844720497</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.2327044025157232</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.2592592592592593</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.2009803921568627</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.2297297297297297</v>
+      </c>
+      <c r="BJ6" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.2307692307692307</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.2034632034632035</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.3027522935779816</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.2592592592592593</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.273972602739726</v>
+      <c r="BK6" t="n">
+        <v>0.2235294117647059</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.2229299363057324</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.211340206185567</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.2342857142857143</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.1956521739130435</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.2010050251256281</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.1913875598086124</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.2017937219730942</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.2091836734693877</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.2721088435374149</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.2018348623853211</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.2314814814814815</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -966,70 +2143,247 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2122905027932961</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1779141104294478</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2102272727272727</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2302158273381295</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2479338842975206</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1954887218045113</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2131147540983607</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.1746031746031746</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2327044025157232</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1639344262295082</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1929824561403509</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1967213114754098</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1894273127753304</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="G7" t="n">
+      <c r="AB7" t="n">
+        <v>0.2101910828025477</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.2025316455696202</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1699029126213593</v>
+      </c>
+      <c r="AE7" t="n">
         <v>0.2295081967213115</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.2295081967213115</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.2461538461538462</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>0.2638888888888888</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2384615384615385</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="AK7" t="n">
+        <v>0.2154696132596685</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.203125</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>0.1976744186046512</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="AO7" t="n">
+        <v>0.1653543307086615</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.1931034482758621</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
         <v>0.2771084337349398</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AT7" t="n">
+        <v>0.1973684210526315</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
         <v>0.1688311688311688</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.2752293577981652</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="AX7" t="n">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.2818181818181819</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.2327044025157232</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="V7" t="n">
+      <c r="BH7" t="n">
+        <v>0.1715686274509803</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.1891891891891891</v>
+      </c>
+      <c r="BJ7" t="n">
         <v>0.2459016393442623</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.2397260273972602</v>
+      <c r="BK7" t="n">
+        <v>0.1882352941176471</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.2038216560509554</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.1907216494845361</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.1942857142857143</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.1847826086956522</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.1909547738693468</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.1913875598086124</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.1928251121076233</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.1683673469387755</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.1697247706422018</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.1759259259259259</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1045,70 +2399,247 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1675977653631285</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2024539877300614</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1761363636363636</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2158273381294964</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1900826446280992</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.1746031746031746</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2075471698113207</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.139344262295082</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.1695906432748538</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.1823529411764706</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.1718061674008811</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.1879194630872483</v>
       </c>
-      <c r="G8" t="n">
+      <c r="AB8" t="n">
+        <v>0.2229299363057324</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.2088607594936709</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.1601941747572816</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="H8" t="n">
+      <c r="AF8" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.2230769230769231</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.1712707182320442</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.1927083333333334</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.1535433070866141</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.1862068965517242</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.1845238095238095</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.2039473684210527</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.1558441558441559</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.2636363636363637</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.1925465838509317</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.1698113207547169</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.2027027027027027</v>
+      </c>
+      <c r="BJ8" t="n">
         <v>0.1403508771929824</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.180327868852459</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2230769230769231</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.2034883720930233</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.2034883720930233</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.1558441558441559</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.2568807339449541</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.1917808219178082</v>
+      <c r="BK8" t="n">
+        <v>0.1705882352941176</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.1847133757961783</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.1752577319587629</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.1771428571428572</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.1793478260869565</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.1632653061224489</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.1758793969849246</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.15311004784689</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.1748878923766816</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.1683673469387755</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.1972789115646258</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.1743119266055045</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1125,70 +2656,247 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2307692307692307</v>
+        <v>0.229050279329609</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.2085889570552147</v>
       </c>
       <c r="F9" t="n">
-        <v>0.174496644295302</v>
+        <v>0.2556818181818182</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="I9" t="n">
         <v>0.2307692307692307</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.2185792349726776</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.2327044025157232</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2213114754098361</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2411764705882353</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.2131147540983607</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2334801762114538</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.2292993630573248</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.2151898734177216</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.2378640776699029</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="AF9" t="n">
         <v>0.2384615384615385</v>
       </c>
-      <c r="K9" t="n">
+      <c r="AG9" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0.2230769230769231</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.2307692307692307</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.2209944751381215</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.2395833333333334</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="AO9" t="n">
+        <v>0.2244094488188977</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.2321428571428571</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
         <v>0.2769230769230769</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AT9" t="n">
+        <v>0.2171052631578947</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
         <v>0.2251082251082251</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="AX9" t="n">
+        <v>0.2108843537414966</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.2538461538461538</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.2484472049689441</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.2138364779874213</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
         <v>0.2076923076923077</v>
       </c>
-      <c r="V9" t="n">
+      <c r="BH9" t="n">
+        <v>0.2401960784313726</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.1756756756756757</v>
+      </c>
+      <c r="BJ9" t="n">
         <v>0.1923076923076923</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.178082191780822</v>
+      <c r="BK9" t="n">
+        <v>0.2176470588235294</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.1910828025477707</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.2319587628865979</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.2285714285714285</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.2119565217391305</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.2295918367346939</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.2160804020100503</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.2488038277511961</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.242152466367713</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.2602040816326531</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.2477064220183486</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.2638888888888888</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1204,52 +2912,52 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2209302325581395</v>
+        <v>0.2011173184357542</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2325581395348837</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1279069767441861</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1279069767441861</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="I10" t="n">
         <v>0.2209302325581395</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1976744186046512</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2034883720930233</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2441860465116279</v>
+        <v>0.1584699453551912</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2906976744186046</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2558139534883721</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1258,16 +2966,193 @@
         <v>0.2441860465116279</v>
       </c>
       <c r="V10" t="n">
+        <v>0.1639344262295082</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.26431718061674</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="AC10" t="n">
         <v>0.1918604651162791</v>
       </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.2674418604651163</v>
+      <c r="AD10" t="n">
+        <v>0.2572815533980582</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.2034883720930233</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.2209302325581395</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.1878453038674033</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.2239583333333334</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3070866141732284</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.2906976744186046</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.2151162790697675</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.2616279069767442</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.1976744186046512</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.2352941176470589</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.1918604651162791</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.1744186046511628</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.2267441860465116</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.2268041237113402</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.2057142857142857</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.2554347826086957</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.2010050251256281</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.2440191387559809</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.2376681614349776</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.2244897959183674</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.2616279069767442</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.2339449541284404</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1283,70 +3168,247 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0.223463687150838</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2208588957055214</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2670454545454546</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.237410071942446</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3057851239669421</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2330827067669173</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2021857923497268</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.2409638554216867</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2515723270440252</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1967213114754098</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.2280701754385965</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.2176470588235294</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.2240437158469946</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.2026431718061674</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.2416107382550335</v>
       </c>
-      <c r="G11" t="n">
+      <c r="AB11" t="n">
+        <v>0.2611464968152867</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.2278481012658228</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.2330097087378641</v>
+      </c>
+      <c r="AE11" t="n">
         <v>0.1686746987951807</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="AF11" t="n">
+        <v>0.2771084337349398</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.2769230769230769</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>0.1807228915662651</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.2771084337349398</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="AK11" t="n">
+        <v>0.2209944751381215</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.2906976744186046</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.1968503937007874</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.2482758620689656</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.2559523809523809</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.3092105263157895</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.2517006802721088</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.2090909090909091</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.2298136645962733</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.2389937106918238</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.1325301204819277</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.2450980392156863</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BJ11" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.2769230769230769</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.2906976744186046</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.2906976744186046</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.2110091743119266</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.1325301204819277</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.2328767123287672</v>
+      <c r="BK11" t="n">
+        <v>0.2470588235294118</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.2420382165605095</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.2216494845360825</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.2228260869565217</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.2091836734693877</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.2110552763819096</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.2392344497607656</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.1973094170403588</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.2193877551020408</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.2312925170068028</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.2155963302752294</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.2175925925925926</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1362,70 +3424,247 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2294372294372294</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2510822510822511</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2337662337662337</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2337662337662337</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2640692640692641</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.1861471861471862</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2554112554112554</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.1844262295081968</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.2251082251082251</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.1948051948051948</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0.2683982683982684</v>
       </c>
-      <c r="G12" t="n">
+      <c r="AB12" t="n">
+        <v>0.2640692640692641</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.2467532467532467</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.2164502164502164</v>
+      </c>
+      <c r="AE12" t="n">
         <v>0.09956709956709953</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.09956709956709953</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="AF12" t="n">
+        <v>0.1688311688311688</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.2294372294372294</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.1558441558441559</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>0.2034632034632035</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.1688311688311688</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.1558441558441559</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="AK12" t="n">
+        <v>0.2294372294372294</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.2204724409448819</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.2683982683982684</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.2467532467532467</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.2554112554112554</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.2294372294372294</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.2164502164502164</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.2337662337662337</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.1471861471861472</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.2294372294372294</v>
+      </c>
+      <c r="BL12" t="n">
         <v>0.2251082251082251</v>
       </c>
-      <c r="M12" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.2510822510822511</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.1471861471861472</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.2510822510822511</v>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.2294372294372294</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.2337662337662337</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.2294372294372294</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.2164502164502164</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.2294372294372294</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.2121212121212122</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.2251082251082251</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.2467532467532467</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.1948051948051948</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.2251082251082251</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1506,6 +3745,183 @@
       <c r="Y13" t="n">
         <v>0</v>
       </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1521,70 +3937,247 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0.2402234636871509</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.196319018404908</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2159090909090909</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2191780821917808</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2191780821917808</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2054794520547946</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2622950819672131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.1986301369863014</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2138364779874213</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.211764705882353</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2349726775956285</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.2466960352422908</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0.174496644295302</v>
       </c>
-      <c r="G14" t="n">
+      <c r="AB14" t="n">
+        <v>0.1719745222929936</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1772151898734177</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.2475728155339806</v>
+      </c>
+      <c r="AE14" t="n">
         <v>0.136986301369863</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.136986301369863</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="AF14" t="n">
+        <v>0.2397260273972602</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.178082191780822</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.1917808219178082</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>0.273972602739726</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.2397260273972602</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1917808219178082</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.178082191780822</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="AK14" t="n">
+        <v>0.2044198895027625</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.2395833333333334</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
         <v>0.2674418604651163</v>
       </c>
-      <c r="N14" t="n">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="AO14" t="n">
+        <v>0.2677165354330708</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.1643835616438356</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.1964285714285714</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
         <v>0.2328767123287672</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AT14" t="n">
+        <v>0.1842105263157895</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
         <v>0.2510822510822511</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.2671232876712328</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="AX14" t="n">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.2236024844720497</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.220125786163522</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
         <v>0.2534246575342466</v>
       </c>
-      <c r="V14" t="n">
+      <c r="BH14" t="n">
+        <v>0.2254901960784313</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.1554054054054054</v>
+      </c>
+      <c r="BJ14" t="n">
         <v>0.1986301369863014</v>
       </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1</v>
+      <c r="BK14" t="n">
+        <v>0.1705882352941176</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0.1910828025477707</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>0.2628865979381443</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0.2514285714285714</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0.2295918367346939</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.2512562814070352</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0.2344497607655502</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.2645739910313901</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0.2193877551020408</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>0.9863945578231292</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0.2247706422018348</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0.2731481481481481</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1601,70 +4194,247 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0.2849162011173184</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2331288343558282</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2897727272727273</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2517985611510791</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2975206611570248</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2706766917293233</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2950819672131147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.2477064220183486</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.2704402515723271</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.2581967213114754</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.2748538011695907</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.2705882352941177</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2466960352422908</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0.2885906040268457</v>
       </c>
-      <c r="G15" t="n">
+      <c r="AB15" t="n">
+        <v>0.2738853503184714</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.240506329113924</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.2427184466019418</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0.1743119266055045</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.1743119266055045</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="AF15" t="n">
+        <v>0.2752293577981652</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.2461538461538462</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.2568807339449541</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>0.3027522935779816</v>
       </c>
-      <c r="J15" t="n">
+      <c r="AK15" t="n">
+        <v>0.2430939226519337</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.2552083333333334</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.2519685039370079</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.2275862068965517</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0.2110091743119266</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.2368421052631579</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.2510822510822511</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.2795031055900621</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.2830188679245284</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.2385321100917431</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>0.2432432432432432</v>
+      </c>
+      <c r="BJ15" t="n">
         <v>0.2752293577981652</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.2568807339449541</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.2110091743119266</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.2510822510822511</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.2385321100917431</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.2752293577981652</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.2671232876712328</v>
+      <c r="BK15" t="n">
+        <v>0.2411764705882353</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0.2547770700636943</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>0.2474226804123711</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0.2685714285714286</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.2448979591836735</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.2613065326633166</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.2535885167464115</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.242152466367713</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0.2704081632653061</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.2721088435374149</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0.2660550458715596</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.2592592592592593</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1689,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1698,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1728,21 +4498,198 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
         <v>1</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="AV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1759,70 +4706,247 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>0.2067039106145251</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2208588957055214</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2215909090909091</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2230215827338129</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2148760330578512</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2481203007518797</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2240437158469946</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.1975308641975309</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.2389937106918238</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2008196721311475</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.216374269005848</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.211764705882353</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.2568306010928961</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.2026431718061674</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>0.2348993288590604</v>
       </c>
-      <c r="G17" t="n">
+      <c r="AB17" t="n">
+        <v>0.2292993630573248</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.2215189873417721</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.1990291262135923</v>
+      </c>
+      <c r="AE17" t="n">
         <v>0.3580246913580247</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.3580246913580247</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="AF17" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.2076923076923077</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.1975308641975309</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>0.2592592592592593</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1975308641975309</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.2076923076923077</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="AK17" t="n">
+        <v>0.2430939226519337</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.2135416666666666</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>0.2441860465116279</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="AO17" t="n">
+        <v>0.1889763779527559</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.2344827586206897</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.2261904761904762</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
         <v>0.1325301204819277</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AT17" t="n">
+        <v>0.2302631578947368</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.2385321100917431</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="AX17" t="n">
+        <v>0.2721088435374149</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.2454545454545455</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.2360248447204969</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.220125786163522</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
         <v>1</v>
       </c>
-      <c r="V17" t="n">
+      <c r="BH17" t="n">
+        <v>0.2303921568627451</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="BJ17" t="n">
         <v>0.3950617283950617</v>
       </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.2534246575342466</v>
+      <c r="BK17" t="n">
+        <v>0.2705882352941177</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0.356687898089172</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0.2061855670103093</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0.2057142857142857</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0.2065217391304348</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.2010050251256281</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.1961722488038278</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0.2107623318385651</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>0.2585034013605442</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0.2201834862385321</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.2175925925925926</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1838,70 +4962,247 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0.1675977653631285</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1595092024539877</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1942446043165468</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2148760330578512</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2030075187969925</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1857923497267759</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.2138364779874213</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.1434426229508197</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.1695906432748538</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1823529411764706</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.180327868852459</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.1674008810572687</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
         <v>0.2013422818791947</v>
       </c>
-      <c r="G18" t="n">
+      <c r="AB18" t="n">
+        <v>0.2038216560509554</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.1708860759493671</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.1650485436893204</v>
+      </c>
+      <c r="AE18" t="n">
         <v>0.25</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="AF18" t="n">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.1403508771929824</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.2459016393442623</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1403508771929824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="AK18" t="n">
+        <v>0.1933701657458563</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.1770833333333334</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
         <v>0.1918604651162791</v>
       </c>
-      <c r="N18" t="n">
-        <v>0.1918604651162791</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="AO18" t="n">
+        <v>0.1417322834645669</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.1964285714285714</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AT18" t="n">
+        <v>0.1842105263157895</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
         <v>0.1471861471861472</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.2752293577981652</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="AX18" t="n">
+        <v>0.2040816326530612</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.1987577639751553</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.1949685534591195</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
         <v>0.3950617283950617</v>
       </c>
-      <c r="V18" t="n">
+      <c r="BH18" t="n">
+        <v>0.196078431372549</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>0.2297297297297297</v>
+      </c>
+      <c r="BJ18" t="n">
         <v>1</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.1986301369863014</v>
+      <c r="BK18" t="n">
+        <v>0.211764705882353</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0.2484076433121019</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>0.1494845360824743</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0.1657142857142857</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0.1530612244897959</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0.1658291457286433</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.1626794258373205</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.1569506726457399</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0.1683673469387755</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.1972789115646258</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0.1651376146788991</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.1620370370370371</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1926,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1935,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1965,21 +5266,198 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
         <v>1</v>
       </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="AV19" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2061,6 +5539,183 @@
       <c r="Y20" t="n">
         <v>0</v>
       </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2078,32 +5733,32 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
@@ -2123,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2132,13 +5787,190 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>0.625</v>
       </c>
-      <c r="Y21" t="n">
-        <v>0</v>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0.625</v>
       </c>
     </row>
     <row r="22">
@@ -2219,6 +6051,183 @@
       <c r="Y22" t="n">
         <v>0</v>
       </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2242,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2251,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2281,21 +6290,198 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
         <v>1</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2321,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.6470588235294117</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2330,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2360,21 +6546,198 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
         <v>0.6470588235294117</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
         <v>1</v>
       </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
+      <c r="AV24" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0.6470588235294117</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2394,32 +6757,32 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.625</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -2439,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2448,13 +6811,190 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>1</v>
       </c>
-      <c r="Y25" t="n">
-        <v>0</v>
+      <c r="Z25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
